--- a/plots-eff1-new-both/particle_both_motion_data.xlsx
+++ b/plots-eff1-new-both/particle_both_motion_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,41 +509,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.445578231292517</v>
+        <v>5.527210884353742</v>
       </c>
       <c r="D2" t="n">
-        <v>376</v>
+        <v>331.2157534246576</v>
       </c>
       <c r="E2" t="n">
-        <v>1018.897297297297</v>
+        <v>1069.48085106383</v>
       </c>
       <c r="F2" t="n">
-        <v>243.1800136632332</v>
+        <v>181.5812583148384</v>
       </c>
       <c r="G2" t="n">
-        <v>1262.07731096053</v>
+        <v>1251.062109378668</v>
       </c>
       <c r="H2" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5</v>
+        <v>98.5</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>11.85967741935485</v>
       </c>
     </row>
     <row r="3">
@@ -554,41 +554,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.897959183673469</v>
+        <v>0.282312925170068</v>
       </c>
       <c r="D3" t="n">
         <v>376</v>
       </c>
       <c r="E3" t="n">
-        <v>1478.4</v>
+        <v>1288.861538461538</v>
       </c>
       <c r="F3" t="n">
-        <v>189.4665489774038</v>
+        <v>288.5494910922961</v>
       </c>
       <c r="G3" t="n">
-        <v>1667.866548977404</v>
+        <v>1577.411029553834</v>
       </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
+        <v>110</v>
+      </c>
+      <c r="L3" t="n">
         <v>111</v>
       </c>
-      <c r="L3" t="n">
-        <v>110.5</v>
-      </c>
       <c r="M3" t="n">
-        <v>12.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="4">
@@ -599,41 +599,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>335</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.244897959183673</v>
+        <v>1.897959183673469</v>
       </c>
       <c r="D4" t="n">
-        <v>371.1301369863014</v>
+        <v>376</v>
       </c>
       <c r="E4" t="n">
-        <v>1018.897297297297</v>
+        <v>1507.968</v>
       </c>
       <c r="F4" t="n">
-        <v>190.3916527710996</v>
+        <v>189.4665489774038</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.288950068397</v>
+        <v>1697.434548977404</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>109.5</v>
+        <v>111</v>
       </c>
       <c r="L4" t="n">
-        <v>110</v>
+        <v>110.5</v>
       </c>
       <c r="M4" t="n">
-        <v>10.73225806451615</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5">
@@ -644,41 +644,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>358</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.040816326530612</v>
+        <v>4.993197278911564</v>
       </c>
       <c r="D5" t="n">
-        <v>358.8630136986301</v>
+        <v>342.3732876712328</v>
       </c>
       <c r="E5" t="n">
-        <v>1108.8</v>
+        <v>851.9593220338983</v>
       </c>
       <c r="F5" t="n">
-        <v>176.4494983561484</v>
+        <v>162.5987764551972</v>
       </c>
       <c r="G5" t="n">
-        <v>1285.249498356148</v>
+        <v>1014.558098489095</v>
       </c>
       <c r="H5" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>106.5</v>
+        <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M5" t="n">
-        <v>10.73709677419356</v>
+        <v>10.79193548387096</v>
       </c>
     </row>
     <row r="6">
@@ -689,41 +689,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>367</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3979591836734694</v>
+        <v>3.244897959183673</v>
       </c>
       <c r="D6" t="n">
-        <v>376</v>
+        <v>371.1301369863014</v>
       </c>
       <c r="E6" t="n">
-        <v>1346.4</v>
+        <v>1018.897297297297</v>
       </c>
       <c r="F6" t="n">
-        <v>317.1634841501117</v>
+        <v>190.3916527710996</v>
       </c>
       <c r="G6" t="n">
-        <v>1663.563484150112</v>
+        <v>1209.288950068397</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I6" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>105.5</v>
+        <v>109.5</v>
       </c>
       <c r="L6" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M6" t="n">
-        <v>36</v>
+        <v>10.73225806451615</v>
       </c>
     </row>
     <row r="7">
@@ -734,41 +734,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>374</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.08843537414966</v>
+        <v>4.962585034013605</v>
       </c>
       <c r="D7" t="n">
         <v>339.568493150685</v>
       </c>
       <c r="E7" t="n">
-        <v>966.6461538461538</v>
+        <v>1064.949152542373</v>
       </c>
       <c r="F7" t="n">
-        <v>149.4027916470798</v>
+        <v>174.9285106697486</v>
       </c>
       <c r="G7" t="n">
-        <v>1116.048945493234</v>
+        <v>1239.877663212122</v>
       </c>
       <c r="H7" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I7" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" t="n">
         <v>102</v>
       </c>
       <c r="M7" t="n">
-        <v>10.1483870967742</v>
+        <v>10.79193548387096</v>
       </c>
     </row>
     <row r="8">
@@ -779,41 +779,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>398</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4863945578231292</v>
+        <v>4.040816326530612</v>
       </c>
       <c r="D8" t="n">
-        <v>376</v>
+        <v>358.8630136986301</v>
       </c>
       <c r="E8" t="n">
-        <v>1396.266666666667</v>
+        <v>1077.12</v>
       </c>
       <c r="F8" t="n">
-        <v>286.2594601585963</v>
+        <v>176.4494983561484</v>
       </c>
       <c r="G8" t="n">
-        <v>1682.526126825263</v>
+        <v>1253.569498356148</v>
       </c>
       <c r="H8" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>112.5</v>
+        <v>106.5</v>
       </c>
       <c r="L8" t="n">
-        <v>109.5</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>21.5</v>
+        <v>10.73709677419356</v>
       </c>
     </row>
     <row r="9">
@@ -824,41 +824,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>486</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.5</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="D9" t="n">
-        <v>351.25</v>
+        <v>376</v>
       </c>
       <c r="E9" t="n">
-        <v>1069.48085106383</v>
+        <v>1196.8</v>
       </c>
       <c r="F9" t="n">
-        <v>186.7525344078171</v>
+        <v>294.0122399938694</v>
       </c>
       <c r="G9" t="n">
-        <v>1256.233385471647</v>
+        <v>1490.812239993869</v>
       </c>
       <c r="H9" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I9" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L9" t="n">
-        <v>103.5</v>
+        <v>108.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13.00967741935483</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -869,38 +869,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>496</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.979591836734694</v>
+        <v>1.860544217687075</v>
       </c>
       <c r="D10" t="n">
         <v>376</v>
       </c>
       <c r="E10" t="n">
-        <v>1185.509433962264</v>
+        <v>1163.555555555556</v>
       </c>
       <c r="F10" t="n">
-        <v>180.0608222914726</v>
+        <v>180.0543762514346</v>
       </c>
       <c r="G10" t="n">
-        <v>1365.570256253737</v>
+        <v>1343.60993180699</v>
       </c>
       <c r="H10" t="n">
         <v>64</v>
       </c>
       <c r="I10" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>110.5</v>
+        <v>111.5</v>
       </c>
       <c r="L10" t="n">
-        <v>112.5</v>
+        <v>111.5</v>
       </c>
       <c r="M10" t="n">
         <v>11.5</v>
@@ -914,41 +914,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8367346938775511</v>
+        <v>5.08843537414966</v>
       </c>
       <c r="D11" t="n">
-        <v>376</v>
+        <v>339.568493150685</v>
       </c>
       <c r="E11" t="n">
-        <v>1346.4</v>
+        <v>985.6</v>
       </c>
       <c r="F11" t="n">
-        <v>286.2767681865</v>
+        <v>149.4027916470798</v>
       </c>
       <c r="G11" t="n">
-        <v>1632.6767681865</v>
+        <v>1135.00279164708</v>
       </c>
       <c r="H11" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I11" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>112.5</v>
+        <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>10.1483870967742</v>
       </c>
     </row>
     <row r="12">
@@ -959,41 +959,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.061224489795919</v>
+        <v>1.979591836734694</v>
       </c>
       <c r="D12" t="n">
-        <v>358.1232876712328</v>
+        <v>376</v>
       </c>
       <c r="E12" t="n">
-        <v>661.3894736842104</v>
+        <v>1232</v>
       </c>
       <c r="F12" t="n">
-        <v>193.9285255303788</v>
+        <v>180.0608222914726</v>
       </c>
       <c r="G12" t="n">
-        <v>855.3179992145892</v>
+        <v>1412.060822291473</v>
       </c>
       <c r="H12" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I12" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>105.5</v>
+        <v>110.5</v>
       </c>
       <c r="L12" t="n">
-        <v>105</v>
+        <v>112.5</v>
       </c>
       <c r="M12" t="n">
-        <v>15.70645161290321</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13">
@@ -1004,41 +1004,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>566</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.370748299319728</v>
+        <v>0.282312925170068</v>
       </c>
       <c r="D13" t="n">
         <v>376</v>
       </c>
       <c r="E13" t="n">
-        <v>819.5478260869564</v>
+        <v>1256.64</v>
       </c>
       <c r="F13" t="n">
-        <v>177.7226133661432</v>
+        <v>228.8615972841179</v>
       </c>
       <c r="G13" t="n">
-        <v>997.2704394530997</v>
+        <v>1485.501597284118</v>
       </c>
       <c r="H13" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I13" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>112</v>
+        <v>110.5</v>
       </c>
       <c r="L13" t="n">
-        <v>111.5</v>
+        <v>111</v>
       </c>
       <c r="M13" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1049,41 +1049,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>572</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.673469387755102</v>
+        <v>0.4251700680272109</v>
       </c>
       <c r="D14" t="n">
         <v>376</v>
       </c>
       <c r="E14" t="n">
-        <v>1142.4</v>
+        <v>1117.013333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>215.2815565727823</v>
+        <v>245.7976948003219</v>
       </c>
       <c r="G14" t="n">
-        <v>1357.681556572782</v>
+        <v>1362.811028133655</v>
       </c>
       <c r="H14" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I14" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
       <c r="K14" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="L14" t="n">
         <v>112</v>
       </c>
-      <c r="L14" t="n">
-        <v>109.5</v>
-      </c>
       <c r="M14" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="15">
@@ -1094,41 +1094,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>594</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.3741496598639456</v>
       </c>
       <c r="D15" t="n">
         <v>376</v>
       </c>
       <c r="E15" t="n">
-        <v>1216.103225806452</v>
+        <v>1861.688888888889</v>
       </c>
       <c r="F15" t="n">
-        <v>229.2836890393062</v>
+        <v>269.9505135103154</v>
       </c>
       <c r="G15" t="n">
-        <v>1445.386914845758</v>
+        <v>2131.639402399204</v>
       </c>
       <c r="H15" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I15" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>112</v>
+        <v>78.5</v>
       </c>
       <c r="L15" t="n">
-        <v>112</v>
+        <v>112.5</v>
       </c>
       <c r="M15" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16">
@@ -1139,41 +1139,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>596</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.204081632653061</v>
+        <v>0.5680272108843537</v>
       </c>
       <c r="D16" t="n">
-        <v>338.027397260274</v>
+        <v>376</v>
       </c>
       <c r="E16" t="n">
-        <v>739.1999999999999</v>
+        <v>1225.990243902439</v>
       </c>
       <c r="F16" t="n">
-        <v>189.4343995056664</v>
+        <v>295.7951349941143</v>
       </c>
       <c r="G16" t="n">
-        <v>928.6343995056664</v>
+        <v>1521.785378896553</v>
       </c>
       <c r="H16" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I16" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>98.5</v>
+        <v>111.5</v>
       </c>
       <c r="L16" t="n">
-        <v>100.5</v>
+        <v>110.5</v>
       </c>
       <c r="M16" t="n">
-        <v>17.87258064516129</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1184,41 +1184,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>653</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.843537414965986</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="D17" t="n">
         <v>376</v>
       </c>
       <c r="E17" t="n">
-        <v>769.3714285714285</v>
+        <v>1225.990243902439</v>
       </c>
       <c r="F17" t="n">
-        <v>194.7126151088843</v>
+        <v>230.9766830399291</v>
       </c>
       <c r="G17" t="n">
-        <v>964.0840436803128</v>
+        <v>1456.966926942368</v>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I17" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="L17" t="n">
         <v>112</v>
       </c>
-      <c r="L17" t="n">
-        <v>109.5</v>
-      </c>
       <c r="M17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1229,41 +1229,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>102-2</t>
+          <t>655</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.948979591836735</v>
+        <v>4.061224489795919</v>
       </c>
       <c r="D18" t="n">
-        <v>302.0472575905974</v>
+        <v>358.1232876712328</v>
       </c>
       <c r="E18" t="n">
-        <v>966.6461538461538</v>
+        <v>685.4399999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>168.0625146340539</v>
+        <v>193.9285255303788</v>
       </c>
       <c r="G18" t="n">
-        <v>1134.708668480208</v>
+        <v>879.3685255303787</v>
       </c>
       <c r="H18" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>88</v>
+        <v>105.5</v>
       </c>
       <c r="L18" t="n">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M18" t="n">
-        <v>10.99921752738655</v>
+        <v>15.70645161290321</v>
       </c>
     </row>
     <row r="19">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>110-2</t>
+          <t>683</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8.074829931972788</v>
+        <v>0.3027210884353742</v>
       </c>
       <c r="D19" t="n">
-        <v>283.1106758080313</v>
+        <v>376</v>
       </c>
       <c r="E19" t="n">
-        <v>919.4926829268292</v>
+        <v>966.6461538461538</v>
       </c>
       <c r="F19" t="n">
-        <v>162.1316050020312</v>
+        <v>216.0052356900116</v>
       </c>
       <c r="G19" t="n">
-        <v>1081.62428792886</v>
+        <v>1182.651389536165</v>
       </c>
       <c r="H19" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>82</v>
+        <v>111.5</v>
       </c>
       <c r="L19" t="n">
-        <v>85.5</v>
+        <v>110.5</v>
       </c>
       <c r="M19" t="n">
-        <v>7.838028169014081</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1319,41 +1319,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>145-2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.438775510204081</v>
+        <v>2.370748299319728</v>
       </c>
       <c r="D20" t="n">
-        <v>311.1574436826641</v>
+        <v>376</v>
       </c>
       <c r="E20" t="n">
-        <v>1256.64</v>
+        <v>1691.630769230769</v>
       </c>
       <c r="F20" t="n">
-        <v>177.7446372329393</v>
+        <v>177.7226133661432</v>
       </c>
       <c r="G20" t="n">
-        <v>1434.384637232939</v>
+        <v>1869.353382596913</v>
       </c>
       <c r="H20" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I20" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L20" t="n">
-        <v>93.5</v>
+        <v>111.5</v>
       </c>
       <c r="M20" t="n">
-        <v>13.32785602503913</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="21">
@@ -1364,41 +1364,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>210-2</t>
+          <t>723</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.836734693877552</v>
+        <v>1.673469387755102</v>
       </c>
       <c r="D21" t="n">
-        <v>307.7196376101861</v>
+        <v>376</v>
       </c>
       <c r="E21" t="n">
-        <v>897.5999999999999</v>
+        <v>1168.967441860465</v>
       </c>
       <c r="F21" t="n">
-        <v>142.1785793335168</v>
+        <v>215.2815565727823</v>
       </c>
       <c r="G21" t="n">
-        <v>1039.778579333517</v>
+        <v>1384.248998433247</v>
       </c>
       <c r="H21" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I21" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>91.5</v>
+        <v>112</v>
       </c>
       <c r="L21" t="n">
-        <v>92.5</v>
+        <v>109.5</v>
       </c>
       <c r="M21" t="n">
-        <v>8.838810641627532</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1409,41 +1409,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>247-2</t>
+          <t>777</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.948979591836735</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="D22" t="n">
-        <v>285.1733594515181</v>
+        <v>376</v>
       </c>
       <c r="E22" t="n">
-        <v>919.4926829268292</v>
+        <v>1933.292307692308</v>
       </c>
       <c r="F22" t="n">
-        <v>183.6023025090271</v>
+        <v>236.8512380735186</v>
       </c>
       <c r="G22" t="n">
-        <v>1103.094985435856</v>
+        <v>2170.143545765826</v>
       </c>
       <c r="H22" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="L22" t="n">
-        <v>86.5</v>
+        <v>105.5</v>
       </c>
       <c r="M22" t="n">
-        <v>11.64788732394365</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="23">
@@ -1454,41 +1454,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>288-2</t>
+          <t>808</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10.13605442176871</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="D23" t="n">
-        <v>251.0531341821743</v>
+        <v>376</v>
       </c>
       <c r="E23" t="n">
-        <v>1288.861538461538</v>
+        <v>1178.1</v>
       </c>
       <c r="F23" t="n">
-        <v>233.8983528356734</v>
+        <v>229.2836890393062</v>
       </c>
       <c r="G23" t="n">
-        <v>1522.759891297212</v>
+        <v>1407.383689039306</v>
       </c>
       <c r="H23" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L23" t="n">
-        <v>74.5</v>
+        <v>112</v>
       </c>
       <c r="M23" t="n">
-        <v>12.04773082942097</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1499,41 +1499,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>367-2</t>
+          <t>812</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.884353741496599</v>
+        <v>5.204081632653061</v>
       </c>
       <c r="D24" t="n">
-        <v>287.3792850146914</v>
+        <v>338.027397260274</v>
       </c>
       <c r="E24" t="n">
-        <v>1648.052459016393</v>
+        <v>769.3714285714285</v>
       </c>
       <c r="F24" t="n">
-        <v>155.4996674260746</v>
+        <v>189.4343995056664</v>
       </c>
       <c r="G24" t="n">
-        <v>1803.552126442468</v>
+        <v>958.8058280770949</v>
       </c>
       <c r="H24" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I24" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>84.5</v>
+        <v>98.5</v>
       </c>
       <c r="L24" t="n">
-        <v>87</v>
+        <v>100.5</v>
       </c>
       <c r="M24" t="n">
-        <v>14.7300469483568</v>
+        <v>17.87258064516129</v>
       </c>
     </row>
     <row r="25">
@@ -1544,41 +1544,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>417-2</t>
+          <t>905</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.687074829931973</v>
+        <v>4.020408163265306</v>
       </c>
       <c r="D25" t="n">
-        <v>273.7999510284035</v>
+        <v>359.5410958904109</v>
       </c>
       <c r="E25" t="n">
-        <v>837.76</v>
+        <v>819.5478260869564</v>
       </c>
       <c r="F25" t="n">
-        <v>200.4445312856781</v>
+        <v>174.6152199484767</v>
       </c>
       <c r="G25" t="n">
-        <v>1038.204531285678</v>
+        <v>994.1630460354331</v>
       </c>
       <c r="H25" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I25" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>79.5</v>
+        <v>107</v>
       </c>
       <c r="L25" t="n">
-        <v>81.5</v>
+        <v>107.5</v>
       </c>
       <c r="M25" t="n">
-        <v>13.05790297339593</v>
+        <v>11.79838709677421</v>
       </c>
     </row>
     <row r="26">
@@ -1589,41 +1589,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>420-2</t>
+          <t>102-2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.08843537414966</v>
+        <v>6.948979591836735</v>
       </c>
       <c r="D26" t="n">
-        <v>314.7957884427032</v>
+        <v>302.0472575905974</v>
       </c>
       <c r="E26" t="n">
-        <v>1599.36</v>
+        <v>837.76</v>
       </c>
       <c r="F26" t="n">
-        <v>174.3029888596624</v>
+        <v>168.0625146340539</v>
       </c>
       <c r="G26" t="n">
-        <v>1773.662988859663</v>
+        <v>1005.822514634054</v>
       </c>
       <c r="H26" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L26" t="n">
-        <v>93.5</v>
+        <v>91</v>
       </c>
       <c r="M26" t="n">
-        <v>15.88967136150234</v>
+        <v>10.99921752738655</v>
       </c>
     </row>
     <row r="27">
@@ -1634,41 +1634,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>442-2</t>
+          <t>110-2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.122448979591836</v>
+        <v>8.074829931972788</v>
       </c>
       <c r="D27" t="n">
-        <v>314.6811949069539</v>
+        <v>283.1106758080313</v>
       </c>
       <c r="E27" t="n">
-        <v>824.0262295081967</v>
+        <v>992.0842105263157</v>
       </c>
       <c r="F27" t="n">
-        <v>145.5465403638278</v>
+        <v>162.1316050020312</v>
       </c>
       <c r="G27" t="n">
-        <v>969.5727698720245</v>
+        <v>1154.215815528347</v>
       </c>
       <c r="H27" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I27" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L27" t="n">
-        <v>94</v>
+        <v>85.5</v>
       </c>
       <c r="M27" t="n">
-        <v>11.52582159624413</v>
+        <v>7.838028169014081</v>
       </c>
     </row>
     <row r="28">
@@ -1679,311 +1679,311 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>94-2</t>
+          <t>247-2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.758503401360545</v>
+        <v>7.948979591836735</v>
       </c>
       <c r="D28" t="n">
-        <v>306.0293829578844</v>
+        <v>285.1733594515181</v>
       </c>
       <c r="E28" t="n">
-        <v>1142.4</v>
+        <v>897.5999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>128.1957935306097</v>
+        <v>183.6023025090271</v>
       </c>
       <c r="G28" t="n">
-        <v>1270.59579353061</v>
+        <v>1081.202302509027</v>
       </c>
       <c r="H28" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I28" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L28" t="n">
-        <v>92.5</v>
+        <v>86.5</v>
       </c>
       <c r="M28" t="n">
-        <v>8.387323943661983</v>
+        <v>11.64788732394365</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>288-2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.425170068027211</v>
+        <v>10.13605442176871</v>
       </c>
       <c r="D29" t="n">
-        <v>368.818493150685</v>
+        <v>251.0531341821743</v>
       </c>
       <c r="E29" t="n">
-        <v>1496</v>
+        <v>1256.64</v>
       </c>
       <c r="F29" t="n">
-        <v>294.5235625284718</v>
+        <v>233.8983528356734</v>
       </c>
       <c r="G29" t="n">
-        <v>1790.523562528472</v>
+        <v>1490.538352835673</v>
       </c>
       <c r="H29" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="L29" t="n">
-        <v>108.5</v>
+        <v>74.5</v>
       </c>
       <c r="M29" t="n">
-        <v>37.29193548387099</v>
+        <v>12.04773082942097</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2138</t>
+          <t>337-2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6496598639455783</v>
+        <v>9.085034013605441</v>
       </c>
       <c r="D30" t="n">
-        <v>376</v>
+        <v>267.7837904015671</v>
       </c>
       <c r="E30" t="n">
-        <v>1523.2</v>
+        <v>797.8666666666667</v>
       </c>
       <c r="F30" t="n">
-        <v>318.5720523913842</v>
+        <v>162.4479328090866</v>
       </c>
       <c r="G30" t="n">
-        <v>1841.772052391384</v>
+        <v>960.3145994757533</v>
       </c>
       <c r="H30" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="I30" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>112.5</v>
+        <v>78</v>
       </c>
       <c r="L30" t="n">
-        <v>110.5</v>
+        <v>80.5</v>
       </c>
       <c r="M30" t="n">
-        <v>22</v>
+        <v>8.520344287949911</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>360-2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.438775510204081</v>
+        <v>8.261904761904761</v>
       </c>
       <c r="D31" t="n">
-        <v>353.1917808219177</v>
+        <v>280.1598922624877</v>
       </c>
       <c r="E31" t="n">
-        <v>1018.897297297297</v>
+        <v>724.9846153846154</v>
       </c>
       <c r="F31" t="n">
-        <v>237.0395220691721</v>
+        <v>194.6061986293526</v>
       </c>
       <c r="G31" t="n">
-        <v>1255.936819366469</v>
+        <v>919.590814013968</v>
       </c>
       <c r="H31" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I31" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="L31" t="n">
-        <v>106.5</v>
+        <v>84</v>
       </c>
       <c r="M31" t="n">
-        <v>22.83709677419353</v>
+        <v>15.02269170579029</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>367-2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.510204081632653</v>
+        <v>7.884353741496599</v>
       </c>
       <c r="D32" t="n">
-        <v>367.4931506849315</v>
+        <v>287.3792850146914</v>
       </c>
       <c r="E32" t="n">
-        <v>1142.4</v>
+        <v>1648.052459016393</v>
       </c>
       <c r="F32" t="n">
-        <v>226.0560369641064</v>
+        <v>155.4996674260746</v>
       </c>
       <c r="G32" t="n">
-        <v>1368.456036964106</v>
+        <v>1803.552126442468</v>
       </c>
       <c r="H32" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I32" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>109</v>
+        <v>84.5</v>
       </c>
       <c r="L32" t="n">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="M32" t="n">
-        <v>18.86451612903227</v>
+        <v>14.7300469483568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>417-2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.030612244897959</v>
+        <v>8.687074829931973</v>
       </c>
       <c r="D33" t="n">
-        <v>375.2294520547945</v>
+        <v>273.7999510284035</v>
       </c>
       <c r="E33" t="n">
-        <v>1322.778947368421</v>
+        <v>837.76</v>
       </c>
       <c r="F33" t="n">
-        <v>219.0289188820539</v>
+        <v>200.4445312856781</v>
       </c>
       <c r="G33" t="n">
-        <v>1541.807866250475</v>
+        <v>1038.204531285678</v>
       </c>
       <c r="H33" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I33" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>110</v>
+        <v>79.5</v>
       </c>
       <c r="L33" t="n">
-        <v>111.5</v>
+        <v>81.5</v>
       </c>
       <c r="M33" t="n">
-        <v>14.22419354838712</v>
+        <v>13.05790297339593</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>452-2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.068027210884354</v>
+        <v>9.357142857142856</v>
       </c>
       <c r="D34" t="n">
-        <v>376</v>
+        <v>262.6557296767875</v>
       </c>
       <c r="E34" t="n">
-        <v>2056.32</v>
+        <v>711.3056603773584</v>
       </c>
       <c r="F34" t="n">
-        <v>238.4195097677706</v>
+        <v>210.8134480630333</v>
       </c>
       <c r="G34" t="n">
-        <v>2294.739509767771</v>
+        <v>922.1191084403918</v>
       </c>
       <c r="H34" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I34" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>112.5</v>
+        <v>77</v>
       </c>
       <c r="L34" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="M34" t="n">
-        <v>29.47903225806454</v>
+        <v>14.33176838810641</v>
       </c>
     </row>
     <row r="35">
@@ -1994,41 +1994,41 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>191-2</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6.738095238095238</v>
+        <v>2.874149659863946</v>
       </c>
       <c r="D35" t="n">
-        <v>306.3158667972576</v>
+        <v>376</v>
       </c>
       <c r="E35" t="n">
-        <v>1428</v>
+        <v>1396.266666666667</v>
       </c>
       <c r="F35" t="n">
-        <v>184.5187802443894</v>
+        <v>290.3581217011832</v>
       </c>
       <c r="G35" t="n">
-        <v>1612.518780244389</v>
+        <v>1686.62478836785</v>
       </c>
       <c r="H35" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I35" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35" t="n">
         <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>90</v>
+        <v>110.5</v>
       </c>
       <c r="L35" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="M35" t="n">
-        <v>9.105633802816897</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="36">
@@ -2039,41 +2039,41 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>236-2</t>
+          <t>1468</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8.336734693877549</v>
+        <v>3.425170068027211</v>
       </c>
       <c r="D36" t="n">
-        <v>279.0999020568071</v>
+        <v>368.818493150685</v>
       </c>
       <c r="E36" t="n">
-        <v>2154.24</v>
+        <v>1611.076923076923</v>
       </c>
       <c r="F36" t="n">
-        <v>228.6518080748108</v>
+        <v>294.5235625284718</v>
       </c>
       <c r="G36" t="n">
-        <v>2382.891808074811</v>
+        <v>1905.600485605395</v>
       </c>
       <c r="H36" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I36" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L36" t="n">
-        <v>83.5</v>
+        <v>108.5</v>
       </c>
       <c r="M36" t="n">
-        <v>7.649452269170581</v>
+        <v>37.29193548387099</v>
       </c>
     </row>
     <row r="37">
@@ -2084,41 +2084,41 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>263-2</t>
+          <t>274</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.833333333333333</v>
+        <v>4.438775510204081</v>
       </c>
       <c r="D37" t="n">
-        <v>305.8001958863859</v>
+        <v>353.1917808219177</v>
       </c>
       <c r="E37" t="n">
-        <v>1122</v>
+        <v>1018.897297297297</v>
       </c>
       <c r="F37" t="n">
-        <v>197.1791849818013</v>
+        <v>237.0395220691721</v>
       </c>
       <c r="G37" t="n">
-        <v>1319.179184981801</v>
+        <v>1255.936819366469</v>
       </c>
       <c r="H37" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I37" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>89.5</v>
+        <v>105</v>
       </c>
       <c r="L37" t="n">
-        <v>91</v>
+        <v>106.5</v>
       </c>
       <c r="M37" t="n">
-        <v>16.55712050078247</v>
+        <v>22.83709677419353</v>
       </c>
     </row>
     <row r="38">
@@ -2129,41 +2129,41 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>291-2</t>
+          <t>452</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9.064625850340136</v>
+        <v>3.510204081632653</v>
       </c>
       <c r="D38" t="n">
-        <v>267.6691968658179</v>
+        <v>367.4931506849315</v>
       </c>
       <c r="E38" t="n">
-        <v>1216.103225806452</v>
+        <v>1753.451162790697</v>
       </c>
       <c r="F38" t="n">
-        <v>242.2017120158704</v>
+        <v>226.0560369641064</v>
       </c>
       <c r="G38" t="n">
-        <v>1458.304937822322</v>
+        <v>1979.507199754804</v>
       </c>
       <c r="H38" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I38" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L38" t="n">
-        <v>80.5</v>
+        <v>107</v>
       </c>
       <c r="M38" t="n">
-        <v>9.471830985915489</v>
+        <v>18.86451612903227</v>
       </c>
     </row>
     <row r="39">
@@ -2174,41 +2174,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>299-2</t>
+          <t>584</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6.928571428571428</v>
+        <v>3.030612244897959</v>
       </c>
       <c r="D39" t="n">
-        <v>303.3937316356513</v>
+        <v>375.2294520547945</v>
       </c>
       <c r="E39" t="n">
-        <v>1365.913043478261</v>
+        <v>1256.64</v>
       </c>
       <c r="F39" t="n">
-        <v>194.1901856748233</v>
+        <v>219.0289188820539</v>
       </c>
       <c r="G39" t="n">
-        <v>1560.103229153084</v>
+        <v>1475.668918882054</v>
       </c>
       <c r="H39" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I39" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="L39" t="n">
-        <v>90</v>
+        <v>111.5</v>
       </c>
       <c r="M39" t="n">
-        <v>10.54773082942097</v>
+        <v>14.22419354838712</v>
       </c>
     </row>
     <row r="40">
@@ -2219,41 +2219,41 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>339-2</t>
+          <t>627</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6.612244897959184</v>
+        <v>3.068027210884354</v>
       </c>
       <c r="D40" t="n">
-        <v>309.8682664054849</v>
+        <v>376</v>
       </c>
       <c r="E40" t="n">
-        <v>1092.730434782609</v>
+        <v>1933.292307692308</v>
       </c>
       <c r="F40" t="n">
-        <v>197.6013061024123</v>
+        <v>238.4195097677706</v>
       </c>
       <c r="G40" t="n">
-        <v>1290.331740885021</v>
+        <v>2171.711817460078</v>
       </c>
       <c r="H40" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I40" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K40" t="n">
-        <v>92</v>
+        <v>112.5</v>
       </c>
       <c r="L40" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="M40" t="n">
-        <v>9.318466353677621</v>
+        <v>29.47903225806454</v>
       </c>
     </row>
     <row r="41">
@@ -2264,41 +2264,41 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>386-2</t>
+          <t>105-2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.472789115646258</v>
+        <v>7.41156462585034</v>
       </c>
       <c r="D41" t="n">
-        <v>311.5298726738491</v>
+        <v>295.4581292850147</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9839999999999</v>
+        <v>1232</v>
       </c>
       <c r="F41" t="n">
-        <v>183.4077976977383</v>
+        <v>204.9634248997118</v>
       </c>
       <c r="G41" t="n">
-        <v>937.3917976977382</v>
+        <v>1436.963424899712</v>
       </c>
       <c r="H41" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I41" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L41" t="n">
-        <v>93.5</v>
+        <v>89</v>
       </c>
       <c r="M41" t="n">
-        <v>7.172926447574326</v>
+        <v>9.525039123630677</v>
       </c>
     </row>
     <row r="42">
@@ -2309,41 +2309,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>392-2</t>
+          <t>161-2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.095238095238096</v>
+        <v>9.935374149659863</v>
       </c>
       <c r="D42" t="n">
-        <v>300.7007835455436</v>
+        <v>255.0925563173359</v>
       </c>
       <c r="E42" t="n">
-        <v>1698.162162162162</v>
+        <v>1904</v>
       </c>
       <c r="F42" t="n">
-        <v>185.3314114623326</v>
+        <v>299.8439406072584</v>
       </c>
       <c r="G42" t="n">
-        <v>1883.493573624495</v>
+        <v>2203.843940607258</v>
       </c>
       <c r="H42" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I42" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>89</v>
+        <v>74.5</v>
       </c>
       <c r="L42" t="n">
-        <v>89.5</v>
+        <v>75.5</v>
       </c>
       <c r="M42" t="n">
-        <v>7.543818466353684</v>
+        <v>7.008607198748052</v>
       </c>
     </row>
     <row r="43">
@@ -2354,41 +2354,41 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>413-2</t>
+          <t>191-2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.85034013605442</v>
+        <v>6.738095238095238</v>
       </c>
       <c r="D43" t="n">
-        <v>270.9064642507345</v>
+        <v>306.3158667972576</v>
       </c>
       <c r="E43" t="n">
-        <v>1396.266666666667</v>
+        <v>1428</v>
       </c>
       <c r="F43" t="n">
-        <v>260.8766449695149</v>
+        <v>184.5187802443894</v>
       </c>
       <c r="G43" t="n">
-        <v>1657.143311636182</v>
+        <v>1612.518780244389</v>
       </c>
       <c r="H43" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I43" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="L43" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="M43" t="n">
-        <v>7.248043818466357</v>
+        <v>9.105633802816897</v>
       </c>
     </row>
     <row r="44">
@@ -2399,41 +2399,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>414-2</t>
+          <t>236-2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7.319727891156462</v>
+        <v>8.336734693877549</v>
       </c>
       <c r="D44" t="n">
-        <v>297.3489226248776</v>
+        <v>279.0999020568071</v>
       </c>
       <c r="E44" t="n">
-        <v>1628.977777777778</v>
+        <v>2094.4</v>
       </c>
       <c r="F44" t="n">
-        <v>189.4549043434172</v>
+        <v>228.6518080748108</v>
       </c>
       <c r="G44" t="n">
-        <v>1818.432682121195</v>
+        <v>2323.051808074811</v>
       </c>
       <c r="H44" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I44" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L44" t="n">
-        <v>89</v>
+        <v>83.5</v>
       </c>
       <c r="M44" t="n">
-        <v>6.786384976525824</v>
+        <v>7.649452269170581</v>
       </c>
     </row>
     <row r="45">
@@ -2444,41 +2444,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>443-2</t>
+          <t>263-2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9.353741496598639</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D45" t="n">
-        <v>263.4578844270324</v>
+        <v>305.8001958863859</v>
       </c>
       <c r="E45" t="n">
-        <v>1358.52972972973</v>
+        <v>1122</v>
       </c>
       <c r="F45" t="n">
-        <v>275.6718758761799</v>
+        <v>197.1791849818013</v>
       </c>
       <c r="G45" t="n">
-        <v>1634.20160560591</v>
+        <v>1319.179184981801</v>
       </c>
       <c r="H45" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I45" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>77.5</v>
+        <v>89.5</v>
       </c>
       <c r="L45" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="M45" t="n">
-        <v>12.30751173708921</v>
+        <v>16.55712050078247</v>
       </c>
     </row>
     <row r="46">
@@ -2489,536 +2489,536 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>82-2</t>
+          <t>291-2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7.806122448979592</v>
+        <v>9.064625850340136</v>
       </c>
       <c r="D46" t="n">
-        <v>288.238736532811</v>
+        <v>267.6691968658179</v>
       </c>
       <c r="E46" t="n">
-        <v>1933.292307692308</v>
+        <v>1142.4</v>
       </c>
       <c r="F46" t="n">
-        <v>201.5441277030621</v>
+        <v>242.2017120158704</v>
       </c>
       <c r="G46" t="n">
-        <v>2134.83643539537</v>
+        <v>1384.60171201587</v>
       </c>
       <c r="H46" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I46" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L46" t="n">
-        <v>87</v>
+        <v>80.5</v>
       </c>
       <c r="M46" t="n">
-        <v>10.2300469483568</v>
+        <v>9.471830985915489</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1410</t>
+          <t>299-2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.755102040816327</v>
+        <v>6.928571428571428</v>
       </c>
       <c r="D47" t="n">
-        <v>363.9794520547945</v>
+        <v>303.3937316356513</v>
       </c>
       <c r="E47" t="n">
-        <v>1523.2</v>
+        <v>1365.913043478261</v>
       </c>
       <c r="F47" t="n">
-        <v>277.6192199397855</v>
+        <v>194.1901856748233</v>
       </c>
       <c r="G47" t="n">
-        <v>1800.819219939785</v>
+        <v>1560.103229153084</v>
       </c>
       <c r="H47" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I47" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>108.5</v>
+        <v>89</v>
       </c>
       <c r="L47" t="n">
-        <v>108.5</v>
+        <v>90</v>
       </c>
       <c r="M47" t="n">
-        <v>13.09677419354841</v>
+        <v>10.54773082942097</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3790</t>
+          <t>306-2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.248299319727891</v>
+        <v>10.24489795918367</v>
       </c>
       <c r="D48" t="n">
-        <v>371.068493150685</v>
+        <v>249.6207149853085</v>
       </c>
       <c r="E48" t="n">
-        <v>1933.292307692308</v>
+        <v>1322.778947368421</v>
       </c>
       <c r="F48" t="n">
-        <v>269.0129911765758</v>
+        <v>248.3241160348697</v>
       </c>
       <c r="G48" t="n">
-        <v>2202.305298868883</v>
+        <v>1571.103063403291</v>
       </c>
       <c r="H48" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I48" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J48" t="n">
         <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>108.5</v>
+        <v>72.5</v>
       </c>
       <c r="L48" t="n">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="M48" t="n">
-        <v>9.998387096774195</v>
+        <v>7.480438184663541</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>308-2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.880952380952381</v>
+        <v>9.408163265306122</v>
       </c>
       <c r="D49" t="n">
-        <v>376</v>
+        <v>263.2573457394711</v>
       </c>
       <c r="E49" t="n">
-        <v>1256.64</v>
+        <v>1047.2</v>
       </c>
       <c r="F49" t="n">
-        <v>304.4914708127029</v>
+        <v>271.4584443100373</v>
       </c>
       <c r="G49" t="n">
-        <v>1561.131470812703</v>
+        <v>1318.658444310037</v>
       </c>
       <c r="H49" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I49" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>111</v>
+        <v>77.5</v>
       </c>
       <c r="L49" t="n">
-        <v>110.5</v>
+        <v>79</v>
       </c>
       <c r="M49" t="n">
-        <v>21</v>
+        <v>9.773865414710485</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>386-2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.687074829931973</v>
+        <v>6.472789115646258</v>
       </c>
       <c r="D50" t="n">
-        <v>364.8116438356165</v>
+        <v>311.5298726738491</v>
       </c>
       <c r="E50" t="n">
-        <v>1299.972413793103</v>
+        <v>897.6</v>
       </c>
       <c r="F50" t="n">
-        <v>254.7919169277805</v>
+        <v>183.4077976977383</v>
       </c>
       <c r="G50" t="n">
-        <v>1554.764330720884</v>
+        <v>1081.007797697738</v>
       </c>
       <c r="H50" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I50" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
-        <v>106.5</v>
+        <v>91</v>
       </c>
       <c r="L50" t="n">
-        <v>109</v>
+        <v>93.5</v>
       </c>
       <c r="M50" t="n">
-        <v>10.49516129032259</v>
+        <v>7.172926447574326</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>103-2</t>
+          <t>392-2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.802721088435373</v>
+        <v>7.095238095238096</v>
       </c>
       <c r="D51" t="n">
-        <v>272.6826640548482</v>
+        <v>300.7007835455436</v>
       </c>
       <c r="E51" t="n">
-        <v>1396.266666666667</v>
+        <v>1449.969230769231</v>
       </c>
       <c r="F51" t="n">
-        <v>269.6578236911332</v>
+        <v>185.3314114623326</v>
       </c>
       <c r="G51" t="n">
-        <v>1665.9244903578</v>
+        <v>1635.300642231563</v>
       </c>
       <c r="H51" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I51" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>80.5</v>
+        <v>89</v>
       </c>
       <c r="L51" t="n">
-        <v>81.5</v>
+        <v>89.5</v>
       </c>
       <c r="M51" t="n">
-        <v>8.082159624413151</v>
+        <v>7.543818466353684</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>213-2</t>
+          <t>407-2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7.578231292517008</v>
+        <v>7.948979591836735</v>
       </c>
       <c r="D52" t="n">
-        <v>292.3927522037219</v>
+        <v>284.4285014691479</v>
       </c>
       <c r="E52" t="n">
-        <v>2037.794594594594</v>
+        <v>942.4799999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>252.9567711418333</v>
+        <v>191.0165352398838</v>
       </c>
       <c r="G52" t="n">
-        <v>2290.751365736428</v>
+        <v>1133.496535239884</v>
       </c>
       <c r="H52" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I52" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>86</v>
+        <v>83.5</v>
       </c>
       <c r="L52" t="n">
-        <v>88.5</v>
+        <v>83</v>
       </c>
       <c r="M52" t="n">
-        <v>8.627543035993739</v>
+        <v>9.381064162754313</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>215-2</t>
+          <t>413-2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6.374149659863946</v>
+        <v>8.85034013605442</v>
       </c>
       <c r="D53" t="n">
-        <v>312.3606758080313</v>
+        <v>270.9064642507345</v>
       </c>
       <c r="E53" t="n">
-        <v>1436.16</v>
+        <v>1570.8</v>
       </c>
       <c r="F53" t="n">
-        <v>259.8665200367571</v>
+        <v>260.8766449695149</v>
       </c>
       <c r="G53" t="n">
-        <v>1696.026520036757</v>
+        <v>1831.676644969515</v>
       </c>
       <c r="H53" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I53" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L53" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M53" t="n">
-        <v>8.464006259780916</v>
+        <v>7.248043818466357</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>240-2</t>
+          <t>414-2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8.319727891156461</v>
+        <v>7.319727891156462</v>
       </c>
       <c r="D54" t="n">
-        <v>279.6728697355534</v>
+        <v>297.3489226248776</v>
       </c>
       <c r="E54" t="n">
-        <v>2284.8</v>
+        <v>1163.555555555556</v>
       </c>
       <c r="F54" t="n">
-        <v>363.1389719105467</v>
+        <v>189.4549043434172</v>
       </c>
       <c r="G54" t="n">
-        <v>2647.938971910547</v>
+        <v>1353.010459898973</v>
       </c>
       <c r="H54" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I54" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L54" t="n">
-        <v>82.5</v>
+        <v>89</v>
       </c>
       <c r="M54" t="n">
-        <v>17.3435054773083</v>
+        <v>6.786384976525824</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>32-2</t>
+          <t>426-2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6.612244897959184</v>
+        <v>6.397959183673469</v>
       </c>
       <c r="D55" t="n">
-        <v>311.1001469147894</v>
+        <v>311.9595984329089</v>
       </c>
       <c r="E55" t="n">
-        <v>1142.4</v>
+        <v>1461.209302325581</v>
       </c>
       <c r="F55" t="n">
-        <v>270.6880307844598</v>
+        <v>197.6951167003868</v>
       </c>
       <c r="G55" t="n">
-        <v>1413.08803078446</v>
+        <v>1658.904419025968</v>
       </c>
       <c r="H55" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I55" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="L55" t="n">
         <v>92</v>
       </c>
-      <c r="L55" t="n">
-        <v>92.5</v>
-      </c>
       <c r="M55" t="n">
-        <v>13.32394366197184</v>
+        <v>7.827856025039125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>381-2</t>
+          <t>443-2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7.197278911564626</v>
+        <v>9.353741496598639</v>
       </c>
       <c r="D56" t="n">
-        <v>298.6667482859941</v>
+        <v>263.4578844270324</v>
       </c>
       <c r="E56" t="n">
-        <v>1256.64</v>
+        <v>1449.969230769231</v>
       </c>
       <c r="F56" t="n">
-        <v>232.1974866065675</v>
+        <v>275.6718758761799</v>
       </c>
       <c r="G56" t="n">
-        <v>1488.837486606567</v>
+        <v>1725.641106645411</v>
       </c>
       <c r="H56" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I56" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>86</v>
+        <v>77.5</v>
       </c>
       <c r="L56" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M56" t="n">
-        <v>9.946791862284812</v>
+        <v>12.30751173708921</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>463-2</t>
+          <t>82-2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8.826530612244897</v>
+        <v>7.806122448979592</v>
       </c>
       <c r="D57" t="n">
-        <v>271.4794319294809</v>
+        <v>288.238736532811</v>
       </c>
       <c r="E57" t="n">
-        <v>2432.206451612903</v>
+        <v>1971.2</v>
       </c>
       <c r="F57" t="n">
-        <v>283.8093946896857</v>
+        <v>201.5441277030621</v>
       </c>
       <c r="G57" t="n">
-        <v>2716.015846302589</v>
+        <v>2172.744127703062</v>
       </c>
       <c r="H57" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I57" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K57" t="n">
-        <v>78.5</v>
+        <v>83</v>
       </c>
       <c r="L57" t="n">
-        <v>81.5</v>
+        <v>87</v>
       </c>
       <c r="M57" t="n">
-        <v>7.087636932707369</v>
+        <v>10.2300469483568</v>
       </c>
     </row>
     <row r="58">
@@ -3029,41 +3029,41 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>49-2</t>
+          <t>1410</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8.428571428571427</v>
+        <v>3.755102040816327</v>
       </c>
       <c r="D58" t="n">
-        <v>276.8939764936337</v>
+        <v>363.9794520547945</v>
       </c>
       <c r="E58" t="n">
-        <v>1256.64</v>
+        <v>1478.4</v>
       </c>
       <c r="F58" t="n">
-        <v>303.3818773533528</v>
+        <v>277.6192199397855</v>
       </c>
       <c r="G58" t="n">
-        <v>1560.021877353353</v>
+        <v>1756.019219939785</v>
       </c>
       <c r="H58" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I58" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>79</v>
+        <v>108.5</v>
       </c>
       <c r="L58" t="n">
-        <v>84</v>
+        <v>108.5</v>
       </c>
       <c r="M58" t="n">
-        <v>8.334115805946794</v>
+        <v>13.09677419354841</v>
       </c>
     </row>
     <row r="59">
@@ -3074,41 +3074,41 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>562-2</t>
+          <t>910</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9.5578231292517</v>
+        <v>3.687074829931973</v>
       </c>
       <c r="D59" t="n">
-        <v>259.6476493633692</v>
+        <v>364.8116438356165</v>
       </c>
       <c r="E59" t="n">
-        <v>2185.460869565217</v>
+        <v>1196.8</v>
       </c>
       <c r="F59" t="n">
-        <v>344.1858145280848</v>
+        <v>254.7919169277805</v>
       </c>
       <c r="G59" t="n">
-        <v>2529.646684093302</v>
+        <v>1451.59191692778</v>
       </c>
       <c r="H59" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I59" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J59" t="n">
         <v>4</v>
       </c>
       <c r="K59" t="n">
-        <v>73</v>
+        <v>106.5</v>
       </c>
       <c r="L59" t="n">
-        <v>78.5</v>
+        <v>109</v>
       </c>
       <c r="M59" t="n">
-        <v>9.3035993740219</v>
+        <v>10.49516129032259</v>
       </c>
     </row>
     <row r="60">
@@ -3119,41 +3119,41 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>564-2</t>
+          <t>103-2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6.472789115646258</v>
+        <v>8.802721088435373</v>
       </c>
       <c r="D60" t="n">
-        <v>311.1574436826641</v>
+        <v>272.6826640548482</v>
       </c>
       <c r="E60" t="n">
-        <v>1256.64</v>
+        <v>1346.4</v>
       </c>
       <c r="F60" t="n">
-        <v>267.3212686812951</v>
+        <v>269.6578236911332</v>
       </c>
       <c r="G60" t="n">
-        <v>1523.961268681295</v>
+        <v>1616.057823691133</v>
       </c>
       <c r="H60" t="n">
         <v>43</v>
       </c>
       <c r="I60" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J60" t="n">
         <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>90.5</v>
+        <v>80.5</v>
       </c>
       <c r="L60" t="n">
-        <v>91.5</v>
+        <v>81.5</v>
       </c>
       <c r="M60" t="n">
-        <v>10.03677621283256</v>
+        <v>8.082159624413151</v>
       </c>
     </row>
     <row r="61">
@@ -3164,41 +3164,41 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>583-2</t>
+          <t>213-2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.272108843537413</v>
+        <v>7.578231292517008</v>
       </c>
       <c r="D61" t="n">
-        <v>280.1312438785504</v>
+        <v>292.3927522037219</v>
       </c>
       <c r="E61" t="n">
-        <v>1733.296551724138</v>
+        <v>1984.168421052631</v>
       </c>
       <c r="F61" t="n">
-        <v>275.2698795733544</v>
+        <v>252.9567711418333</v>
       </c>
       <c r="G61" t="n">
-        <v>2008.566431297492</v>
+        <v>2237.125192194465</v>
       </c>
       <c r="H61" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I61" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K61" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L61" t="n">
-        <v>85</v>
+        <v>88.5</v>
       </c>
       <c r="M61" t="n">
-        <v>8.255868544600929</v>
+        <v>8.627543035993739</v>
       </c>
     </row>
     <row r="62">
@@ -3209,41 +3209,41 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>614-2</t>
+          <t>262-2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.340136054421768</v>
+        <v>6.272108843537415</v>
       </c>
       <c r="D62" t="n">
-        <v>279.3577375122429</v>
+        <v>313.0195886385896</v>
       </c>
       <c r="E62" t="n">
-        <v>1675.52</v>
+        <v>1142.4</v>
       </c>
       <c r="F62" t="n">
-        <v>290.8670412022707</v>
+        <v>241.9704096546637</v>
       </c>
       <c r="G62" t="n">
-        <v>1966.387041202271</v>
+        <v>1384.370409654663</v>
       </c>
       <c r="H62" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I62" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>80</v>
+        <v>91.5</v>
       </c>
       <c r="L62" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M62" t="n">
-        <v>7.528169014084511</v>
+        <v>8.09467918622849</v>
       </c>
     </row>
     <row r="63">
@@ -3254,1076 +3254,1076 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>644-2</t>
+          <t>32-2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8.85034013605442</v>
+        <v>6.612244897959184</v>
       </c>
       <c r="D63" t="n">
-        <v>271.5080803134182</v>
+        <v>311.1001469147894</v>
       </c>
       <c r="E63" t="n">
-        <v>1713.6</v>
+        <v>1108.8</v>
       </c>
       <c r="F63" t="n">
-        <v>279.006543129284</v>
+        <v>270.6880307844598</v>
       </c>
       <c r="G63" t="n">
-        <v>1992.606543129284</v>
+        <v>1379.48803078446</v>
       </c>
       <c r="H63" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I63" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J63" t="n">
         <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>77.5</v>
+        <v>92</v>
       </c>
       <c r="L63" t="n">
-        <v>82</v>
+        <v>92.5</v>
       </c>
       <c r="M63" t="n">
-        <v>7.942097026604074</v>
+        <v>13.32394366197184</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>381-2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.333333333333333</v>
+        <v>7.197278911564626</v>
       </c>
       <c r="D64" t="n">
-        <v>354.7945205479451</v>
+        <v>298.6667482859941</v>
       </c>
       <c r="E64" t="n">
-        <v>1795.2</v>
+        <v>1216.103225806452</v>
       </c>
       <c r="F64" t="n">
-        <v>372.3946273922345</v>
+        <v>232.1974866065675</v>
       </c>
       <c r="G64" t="n">
-        <v>2167.594627392235</v>
+        <v>1448.300712413019</v>
       </c>
       <c r="H64" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I64" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L64" t="n">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="M64" t="n">
-        <v>23.15483870967739</v>
+        <v>9.946791862284812</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>463-2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3.540816326530612</v>
+        <v>8.826530612244897</v>
       </c>
       <c r="D65" t="n">
-        <v>366.9691780821918</v>
+        <v>271.4794319294809</v>
       </c>
       <c r="E65" t="n">
-        <v>2416.615384615385</v>
+        <v>2432.206451612903</v>
       </c>
       <c r="F65" t="n">
-        <v>287.101393282641</v>
+        <v>283.8093946896857</v>
       </c>
       <c r="G65" t="n">
-        <v>2703.716777898026</v>
+        <v>2716.015846302589</v>
       </c>
       <c r="H65" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I65" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K65" t="n">
-        <v>105</v>
+        <v>78.5</v>
       </c>
       <c r="L65" t="n">
-        <v>108</v>
+        <v>81.5</v>
       </c>
       <c r="M65" t="n">
-        <v>7.312903225806451</v>
+        <v>7.087636932707369</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>104-2</t>
+          <t>49-2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6.551020408163265</v>
+        <v>8.428571428571427</v>
       </c>
       <c r="D66" t="n">
-        <v>310.8136630754162</v>
+        <v>276.8939764936337</v>
       </c>
       <c r="E66" t="n">
-        <v>1570.8</v>
+        <v>1299.972413793103</v>
       </c>
       <c r="F66" t="n">
-        <v>269.635759121957</v>
+        <v>303.3818773533528</v>
       </c>
       <c r="G66" t="n">
-        <v>1840.435759121957</v>
+        <v>1603.354291146456</v>
       </c>
       <c r="H66" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I66" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="L66" t="n">
-        <v>91.5</v>
+        <v>84</v>
       </c>
       <c r="M66" t="n">
-        <v>8.930359937402187</v>
+        <v>8.334115805946794</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>117-2</t>
+          <t>494-2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.319727891156461</v>
+        <v>7.227891156462586</v>
       </c>
       <c r="D67" t="n">
-        <v>279.0139569049951</v>
+        <v>297.2343290891283</v>
       </c>
       <c r="E67" t="n">
-        <v>2393.6</v>
+        <v>2416.615384615385</v>
       </c>
       <c r="F67" t="n">
-        <v>360.2551220115573</v>
+        <v>214.3569221129745</v>
       </c>
       <c r="G67" t="n">
-        <v>2753.855122011557</v>
+        <v>2630.972306728359</v>
       </c>
       <c r="H67" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I67" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K67" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L67" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M67" t="n">
-        <v>8.18309859154931</v>
+        <v>8.301251956181545</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>269-2</t>
+          <t>502-2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7.867346938775509</v>
+        <v>6.561224489795919</v>
       </c>
       <c r="D68" t="n">
-        <v>287.2073947110675</v>
+        <v>310.2693437806073</v>
       </c>
       <c r="E68" t="n">
-        <v>1795.2</v>
+        <v>1256.64</v>
       </c>
       <c r="F68" t="n">
-        <v>335.9209735910257</v>
+        <v>223.4432618094255</v>
       </c>
       <c r="G68" t="n">
-        <v>2131.120973591026</v>
+        <v>1480.083261809425</v>
       </c>
       <c r="H68" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I68" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J68" t="n">
         <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>81</v>
+        <v>91.5</v>
       </c>
       <c r="L68" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M68" t="n">
-        <v>8.81768388106417</v>
+        <v>9.600156494522679</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>430-2</t>
+          <t>531-2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8.340136054421768</v>
+        <v>8.0578231292517</v>
       </c>
       <c r="D69" t="n">
-        <v>278.8707149853085</v>
+        <v>283.5976983349657</v>
       </c>
       <c r="E69" t="n">
-        <v>1933.292307692308</v>
+        <v>1077.12</v>
       </c>
       <c r="F69" t="n">
-        <v>351.7405695436931</v>
+        <v>278.9222456966036</v>
       </c>
       <c r="G69" t="n">
-        <v>2285.032877236001</v>
+        <v>1356.042245696603</v>
       </c>
       <c r="H69" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I69" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L69" t="n">
-        <v>83</v>
+        <v>85.5</v>
       </c>
       <c r="M69" t="n">
-        <v>7.440532081377143</v>
+        <v>8.58059467918622</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>455-2</t>
+          <t>564-2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6.506802721088436</v>
+        <v>6.472789115646258</v>
       </c>
       <c r="D70" t="n">
-        <v>311.8450048971597</v>
+        <v>311.1574436826641</v>
       </c>
       <c r="E70" t="n">
-        <v>1436.16</v>
+        <v>1346.4</v>
       </c>
       <c r="F70" t="n">
-        <v>298.6819001750325</v>
+        <v>267.3212686812951</v>
       </c>
       <c r="G70" t="n">
-        <v>1734.841900175032</v>
+        <v>1613.721268681295</v>
       </c>
       <c r="H70" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I70" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>92</v>
+        <v>90.5</v>
       </c>
       <c r="L70" t="n">
-        <v>92</v>
+        <v>91.5</v>
       </c>
       <c r="M70" t="n">
-        <v>10.08528951486699</v>
+        <v>10.03677621283256</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>614-2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>10.03401360544218</v>
+        <v>8.340136054421768</v>
       </c>
       <c r="D71" t="n">
-        <v>253.4023016650343</v>
+        <v>279.3577375122429</v>
       </c>
       <c r="E71" t="n">
-        <v>1507.968</v>
+        <v>1795.2</v>
       </c>
       <c r="F71" t="n">
-        <v>423.7607882897562</v>
+        <v>290.8670412022707</v>
       </c>
       <c r="G71" t="n">
-        <v>1931.728788289756</v>
+        <v>2086.067041202271</v>
       </c>
       <c r="H71" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K71" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L71" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M71" t="n">
-        <v>7.023474178403745</v>
+        <v>7.528169014084511</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>621-2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4.387755102040816</v>
+        <v>6.683673469387755</v>
       </c>
       <c r="D72" t="n">
-        <v>351.5890410958904</v>
+        <v>306.0293829578844</v>
       </c>
       <c r="E72" t="n">
-        <v>1570.8</v>
+        <v>1675.52</v>
       </c>
       <c r="F72" t="n">
-        <v>345.5700025887722</v>
+        <v>393.8049487851699</v>
       </c>
       <c r="G72" t="n">
-        <v>1916.370002588772</v>
+        <v>2069.32494878517</v>
       </c>
       <c r="H72" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I72" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="L72" t="n">
-        <v>101.5</v>
+        <v>89</v>
       </c>
       <c r="M72" t="n">
-        <v>9.245161290322585</v>
+        <v>23.46948356807511</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>638-2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3.581632653061225</v>
+        <v>8.517006802721088</v>
       </c>
       <c r="D73" t="n">
-        <v>365.8595890410959</v>
+        <v>278.2977473065622</v>
       </c>
       <c r="E73" t="n">
-        <v>2185.460869565217</v>
+        <v>1436.16</v>
       </c>
       <c r="F73" t="n">
-        <v>347.3693606801396</v>
+        <v>257.4913837531898</v>
       </c>
       <c r="G73" t="n">
-        <v>2532.830230245357</v>
+        <v>1693.65138375319</v>
       </c>
       <c r="H73" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I73" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J73" t="n">
         <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>104.5</v>
+        <v>80.5</v>
       </c>
       <c r="L73" t="n">
-        <v>104.5</v>
+        <v>83.5</v>
       </c>
       <c r="M73" t="n">
-        <v>7.251612903225805</v>
+        <v>8.970266040688585</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>640-2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.809523809523809</v>
+        <v>10.02721088435374</v>
       </c>
       <c r="D74" t="n">
-        <v>345.1472602739726</v>
+        <v>252.8866307541626</v>
       </c>
       <c r="E74" t="n">
-        <v>1256.64</v>
+        <v>1795.2</v>
       </c>
       <c r="F74" t="n">
-        <v>353.183122282957</v>
+        <v>578.7666386217977</v>
       </c>
       <c r="G74" t="n">
-        <v>1609.823122282957</v>
+        <v>2373.966638621798</v>
       </c>
       <c r="H74" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I74" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J74" t="n">
         <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="L74" t="n">
-        <v>103.5</v>
+        <v>74</v>
       </c>
       <c r="M74" t="n">
-        <v>9.803225806451621</v>
+        <v>25.51799687010956</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>644-2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5.22108843537415</v>
+        <v>8.85034013605442</v>
       </c>
       <c r="D75" t="n">
-        <v>337.5650684931508</v>
+        <v>271.5080803134182</v>
       </c>
       <c r="E75" t="n">
-        <v>1570.8</v>
+        <v>1733.296551724138</v>
       </c>
       <c r="F75" t="n">
-        <v>341.8493751277137</v>
+        <v>279.006543129284</v>
       </c>
       <c r="G75" t="n">
-        <v>1912.649375127714</v>
+        <v>2012.303094853422</v>
       </c>
       <c r="H75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I75" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>97</v>
+        <v>77.5</v>
       </c>
       <c r="L75" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M75" t="n">
-        <v>12.06612903225806</v>
+        <v>7.942097026604074</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>669-2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.071428571428571</v>
+        <v>8.173469387755102</v>
       </c>
       <c r="D76" t="n">
-        <v>358.0924657534246</v>
+        <v>282.5663565132223</v>
       </c>
       <c r="E76" t="n">
-        <v>2513.28</v>
+        <v>1077.12</v>
       </c>
       <c r="F76" t="n">
-        <v>346.1071392572323</v>
+        <v>322.2113730325424</v>
       </c>
       <c r="G76" t="n">
-        <v>2859.387139257233</v>
+        <v>1399.331373032542</v>
       </c>
       <c r="H76" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I76" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
-        <v>104.5</v>
+        <v>81.5</v>
       </c>
       <c r="L76" t="n">
-        <v>102.5</v>
+        <v>85</v>
       </c>
       <c r="M76" t="n">
-        <v>8.583870967741916</v>
+        <v>14.48356807511738</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4089</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3.962585034013606</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D77" t="n">
-        <v>359.1712328767123</v>
+        <v>354.7945205479451</v>
       </c>
       <c r="E77" t="n">
-        <v>1449.969230769231</v>
+        <v>1523.2</v>
       </c>
       <c r="F77" t="n">
-        <v>374.5404200125793</v>
+        <v>372.3946273922345</v>
       </c>
       <c r="G77" t="n">
-        <v>1824.50965078181</v>
+        <v>1895.594627392235</v>
       </c>
       <c r="H77" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I77" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
         <v>102</v>
       </c>
       <c r="L77" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M77" t="n">
-        <v>9.574193548387086</v>
+        <v>23.15483870967739</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>2524</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.098639455782313</v>
+        <v>5.63265306122449</v>
       </c>
       <c r="D78" t="n">
-        <v>357.3835616438356</v>
+        <v>329.2431506849315</v>
       </c>
       <c r="E78" t="n">
-        <v>1396.266666666667</v>
+        <v>1675.52</v>
       </c>
       <c r="F78" t="n">
-        <v>353.5192995976132</v>
+        <v>321.9235114365809</v>
       </c>
       <c r="G78" t="n">
-        <v>1749.78596626428</v>
+        <v>1997.443511436581</v>
       </c>
       <c r="H78" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I78" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>103.5</v>
+        <v>94</v>
       </c>
       <c r="L78" t="n">
-        <v>106.5</v>
+        <v>99.5</v>
       </c>
       <c r="M78" t="n">
-        <v>11.70645161290321</v>
+        <v>18.99354838709678</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3.938775510204082</v>
+        <v>3.540816326530612</v>
       </c>
       <c r="D79" t="n">
-        <v>360.0342465753424</v>
+        <v>366.9691780821918</v>
       </c>
       <c r="E79" t="n">
-        <v>2393.6</v>
+        <v>2513.28</v>
       </c>
       <c r="F79" t="n">
-        <v>399.7634669315757</v>
+        <v>287.101393282641</v>
       </c>
       <c r="G79" t="n">
-        <v>2793.363466931576</v>
+        <v>2800.381393282641</v>
       </c>
       <c r="H79" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I79" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K79" t="n">
         <v>105</v>
       </c>
       <c r="L79" t="n">
-        <v>103.5</v>
+        <v>108</v>
       </c>
       <c r="M79" t="n">
-        <v>9.00322580645161</v>
+        <v>7.312903225806451</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>104-2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.078231292517007</v>
+        <v>6.551020408163265</v>
       </c>
       <c r="D80" t="n">
-        <v>357.8150684931508</v>
+        <v>310.8136630754162</v>
       </c>
       <c r="E80" t="n">
-        <v>2356.2</v>
+        <v>1570.8</v>
       </c>
       <c r="F80" t="n">
-        <v>395.981279317159</v>
+        <v>269.635759121957</v>
       </c>
       <c r="G80" t="n">
-        <v>2752.181279317159</v>
+        <v>1840.435759121957</v>
       </c>
       <c r="H80" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I80" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L80" t="n">
-        <v>105</v>
+        <v>91.5</v>
       </c>
       <c r="M80" t="n">
-        <v>9.991935483870975</v>
+        <v>8.930359937402187</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>117-2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.166666666666667</v>
+        <v>8.319727891156461</v>
       </c>
       <c r="D81" t="n">
-        <v>318.9178082191781</v>
+        <v>279.0139569049951</v>
       </c>
       <c r="E81" t="n">
-        <v>2284.8</v>
+        <v>2513.28</v>
       </c>
       <c r="F81" t="n">
-        <v>348.5733143590056</v>
+        <v>360.2551220115573</v>
       </c>
       <c r="G81" t="n">
-        <v>2633.373314359005</v>
+        <v>2873.535122011557</v>
       </c>
       <c r="H81" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J81" t="n">
         <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>90.5</v>
+        <v>81</v>
       </c>
       <c r="L81" t="n">
-        <v>94.5</v>
+        <v>83</v>
       </c>
       <c r="M81" t="n">
-        <v>17.53064516129032</v>
+        <v>8.18309859154931</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1204-2</t>
+          <t>246-2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6.782312925170069</v>
+        <v>7.112244897959184</v>
       </c>
       <c r="D82" t="n">
-        <v>305.8288442703232</v>
+        <v>300.7294319294809</v>
       </c>
       <c r="E82" t="n">
-        <v>1358.52972972973</v>
+        <v>1698.162162162162</v>
       </c>
       <c r="F82" t="n">
-        <v>295.5662966560696</v>
+        <v>313.7018631448076</v>
       </c>
       <c r="G82" t="n">
-        <v>1654.096026385799</v>
+        <v>2011.86402530697</v>
       </c>
       <c r="H82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I82" t="n">
         <v>38</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K82" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L82" t="n">
-        <v>88.5</v>
+        <v>87.5</v>
       </c>
       <c r="M82" t="n">
-        <v>10.62989045383412</v>
+        <v>12.95618153364632</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1240-2</t>
+          <t>357-2</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>8.860544217687075</v>
+        <v>8.231292517006802</v>
       </c>
       <c r="D83" t="n">
-        <v>270.2761998041136</v>
+        <v>280.9333986287953</v>
       </c>
       <c r="E83" t="n">
-        <v>1570.8</v>
+        <v>1216.103225806452</v>
       </c>
       <c r="F83" t="n">
-        <v>415.0223346940685</v>
+        <v>338.9374375624101</v>
       </c>
       <c r="G83" t="n">
-        <v>1985.822334694069</v>
+        <v>1555.040663368862</v>
       </c>
       <c r="H83" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I83" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J83" t="n">
         <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>79.5</v>
+        <v>78</v>
       </c>
       <c r="L83" t="n">
-        <v>81</v>
+        <v>84.5</v>
       </c>
       <c r="M83" t="n">
-        <v>9.820813771518004</v>
+        <v>7.449921752738646</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1625-2</t>
+          <t>455-2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>9.459183673469386</v>
+        <v>6.506802721088436</v>
       </c>
       <c r="D84" t="n">
-        <v>261.5670910871694</v>
+        <v>311.8450048971597</v>
       </c>
       <c r="E84" t="n">
-        <v>1884.96</v>
+        <v>1478.4</v>
       </c>
       <c r="F84" t="n">
-        <v>474.5347278362852</v>
+        <v>298.6819001750325</v>
       </c>
       <c r="G84" t="n">
-        <v>2359.494727836285</v>
+        <v>1777.081900175032</v>
       </c>
       <c r="H84" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I84" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="L84" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M84" t="n">
-        <v>8.079812206572768</v>
+        <v>10.08528951486699</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1878-2</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8.42517006802721</v>
+        <v>10.03401360544218</v>
       </c>
       <c r="D85" t="n">
-        <v>276.836679725759</v>
+        <v>253.4023016650343</v>
       </c>
       <c r="E85" t="n">
-        <v>2393.6</v>
+        <v>1507.968</v>
       </c>
       <c r="F85" t="n">
-        <v>392.5690139093229</v>
+        <v>423.7607882897562</v>
       </c>
       <c r="G85" t="n">
-        <v>2786.169013909323</v>
+        <v>1931.728788289756</v>
       </c>
       <c r="H85" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I85" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L85" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M85" t="n">
-        <v>6.285602503912372</v>
+        <v>7.023474178403745</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2052-2</t>
+          <t>635-2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>8.605442176870747</v>
+        <v>9.42517006802721</v>
       </c>
       <c r="D86" t="n">
-        <v>274.831292850147</v>
+        <v>261.7389813907933</v>
       </c>
       <c r="E86" t="n">
-        <v>2956.8</v>
+        <v>2792.533333333333</v>
       </c>
       <c r="F86" t="n">
-        <v>422.0850926708963</v>
+        <v>419.9827518348364</v>
       </c>
       <c r="G86" t="n">
-        <v>3378.885092670896</v>
+        <v>3212.51608516817</v>
       </c>
       <c r="H86" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I86" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J86" t="n">
         <v>4</v>
       </c>
       <c r="K86" t="n">
+        <v>77</v>
+      </c>
+      <c r="L86" t="n">
         <v>78</v>
       </c>
-      <c r="L86" t="n">
-        <v>80.5</v>
-      </c>
       <c r="M86" t="n">
-        <v>8.436619718309856</v>
+        <v>8.104068857589994</v>
       </c>
     </row>
     <row r="87">
@@ -4334,41 +4334,41 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2140-2</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>8.836734693877549</v>
+        <v>5.931972789115647</v>
       </c>
       <c r="D87" t="n">
-        <v>271.3361900097943</v>
+        <v>323.8801369863014</v>
       </c>
       <c r="E87" t="n">
-        <v>2645.557894736842</v>
+        <v>2166.620689655173</v>
       </c>
       <c r="F87" t="n">
-        <v>462.9123320835675</v>
+        <v>335.7276921696326</v>
       </c>
       <c r="G87" t="n">
-        <v>3108.47022682041</v>
+        <v>2502.348381824805</v>
       </c>
       <c r="H87" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I87" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
-        <v>75.5</v>
+        <v>92.5</v>
       </c>
       <c r="L87" t="n">
-        <v>78.5</v>
+        <v>94.5</v>
       </c>
       <c r="M87" t="n">
-        <v>7.514866979655721</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -4379,41 +4379,41 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>295-2</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.945578231292516</v>
+        <v>4.663265306122449</v>
       </c>
       <c r="D88" t="n">
-        <v>286.7490205680705</v>
+        <v>348.3219178082192</v>
       </c>
       <c r="E88" t="n">
-        <v>1639.095652173913</v>
+        <v>1507.968</v>
       </c>
       <c r="F88" t="n">
-        <v>444.0881649754019</v>
+        <v>328.254097517597</v>
       </c>
       <c r="G88" t="n">
-        <v>2083.183817149315</v>
+        <v>1836.222097517597</v>
       </c>
       <c r="H88" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I88" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J88" t="n">
         <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="L88" t="n">
-        <v>85</v>
+        <v>104.5</v>
       </c>
       <c r="M88" t="n">
-        <v>18.42957746478874</v>
+        <v>9.74354838709678</v>
       </c>
     </row>
     <row r="89">
@@ -4424,41 +4424,41 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>303-2</t>
+          <t>2557</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>9.15986394557823</v>
+        <v>4.387755102040816</v>
       </c>
       <c r="D89" t="n">
-        <v>265.9502938295788</v>
+        <v>351.5890410958904</v>
       </c>
       <c r="E89" t="n">
-        <v>2513.28</v>
+        <v>1507.968</v>
       </c>
       <c r="F89" t="n">
-        <v>394.791164175261</v>
+        <v>345.5700025887722</v>
       </c>
       <c r="G89" t="n">
-        <v>2908.071164175261</v>
+        <v>1853.538002588772</v>
       </c>
       <c r="H89" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I89" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J89" t="n">
         <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
-        <v>80.5</v>
+        <v>101.5</v>
       </c>
       <c r="M89" t="n">
-        <v>6.438184663536788</v>
+        <v>9.245161290322585</v>
       </c>
     </row>
     <row r="90">
@@ -4469,41 +4469,41 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>464-2</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6.333333333333333</v>
+        <v>4.809523809523809</v>
       </c>
       <c r="D90" t="n">
-        <v>314.0222820763956</v>
+        <v>345.1472602739726</v>
       </c>
       <c r="E90" t="n">
-        <v>1733.296551724138</v>
+        <v>1256.64</v>
       </c>
       <c r="F90" t="n">
-        <v>331.9357703780419</v>
+        <v>353.183122282957</v>
       </c>
       <c r="G90" t="n">
-        <v>2065.23232210218</v>
+        <v>1609.823122282957</v>
       </c>
       <c r="H90" t="n">
         <v>33</v>
       </c>
       <c r="I90" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="L90" t="n">
-        <v>90</v>
+        <v>103.5</v>
       </c>
       <c r="M90" t="n">
-        <v>7.521909233176842</v>
+        <v>9.803225806451621</v>
       </c>
     </row>
     <row r="91">
@@ -4514,41 +4514,41 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>513-2</t>
+          <t>318</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.340136054421769</v>
+        <v>5.22108843537415</v>
       </c>
       <c r="D91" t="n">
-        <v>296.3462291870715</v>
+        <v>337.5650684931508</v>
       </c>
       <c r="E91" t="n">
-        <v>1795.2</v>
+        <v>1449.969230769231</v>
       </c>
       <c r="F91" t="n">
-        <v>333.9717804868719</v>
+        <v>341.8493751277137</v>
       </c>
       <c r="G91" t="n">
-        <v>2129.171780486872</v>
+        <v>1791.818605896945</v>
       </c>
       <c r="H91" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I91" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L91" t="n">
-        <v>87.5</v>
+        <v>99</v>
       </c>
       <c r="M91" t="n">
-        <v>6.670579029733972</v>
+        <v>12.06612903225806</v>
       </c>
     </row>
     <row r="92">
@@ -4559,41 +4559,41 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>594-2</t>
+          <t>368</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.585034013605441</v>
+        <v>4.071428571428571</v>
       </c>
       <c r="D92" t="n">
-        <v>291.9630264446621</v>
+        <v>358.0924657534246</v>
       </c>
       <c r="E92" t="n">
-        <v>1795.2</v>
+        <v>2416.615384615385</v>
       </c>
       <c r="F92" t="n">
-        <v>413.8787535436083</v>
+        <v>346.1071392572323</v>
       </c>
       <c r="G92" t="n">
-        <v>2209.078753543608</v>
+        <v>2762.722523872617</v>
       </c>
       <c r="H92" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I92" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K92" t="n">
-        <v>85.5</v>
+        <v>104.5</v>
       </c>
       <c r="L92" t="n">
-        <v>86.5</v>
+        <v>102.5</v>
       </c>
       <c r="M92" t="n">
-        <v>13.62754303599374</v>
+        <v>8.583870967741916</v>
       </c>
     </row>
     <row r="93">
@@ -4604,40 +4604,850 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5.074829931972789</v>
+      </c>
+      <c r="D93" t="n">
+        <v>340</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1933.292307692308</v>
+      </c>
+      <c r="F93" t="n">
+        <v>328.3811801777933</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2261.673487870101</v>
+      </c>
+      <c r="H93" t="n">
+        <v>35</v>
+      </c>
+      <c r="I93" t="n">
+        <v>27</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="L93" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="M93" t="n">
+        <v>8.801612903225816</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3.353741496598639</v>
+      </c>
+      <c r="D94" t="n">
+        <v>369.527397260274</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2094.4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>358.9140556186739</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2453.314055618674</v>
+      </c>
+      <c r="H94" t="n">
+        <v>31</v>
+      </c>
+      <c r="I94" t="n">
+        <v>25</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>8.435483870967744</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3.962585034013606</v>
+      </c>
+      <c r="D95" t="n">
+        <v>359.1712328767123</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1346.4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>374.5404200125793</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1720.940420012579</v>
+      </c>
+      <c r="H95" t="n">
+        <v>30</v>
+      </c>
+      <c r="I95" t="n">
+        <v>29</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3</v>
+      </c>
+      <c r="K95" t="n">
+        <v>102</v>
+      </c>
+      <c r="L95" t="n">
+        <v>106</v>
+      </c>
+      <c r="M95" t="n">
+        <v>9.574193548387086</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>4.098639455782313</v>
+      </c>
+      <c r="D96" t="n">
+        <v>357.3835616438356</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1449.969230769231</v>
+      </c>
+      <c r="F96" t="n">
+        <v>353.5192995976132</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1803.488530366844</v>
+      </c>
+      <c r="H96" t="n">
+        <v>33</v>
+      </c>
+      <c r="I96" t="n">
+        <v>27</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3</v>
+      </c>
+      <c r="K96" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="L96" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="M96" t="n">
+        <v>11.70645161290321</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3.938775510204082</v>
+      </c>
+      <c r="D97" t="n">
+        <v>360.0342465753424</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2393.6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>399.7634669315757</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2793.363466931576</v>
+      </c>
+      <c r="H97" t="n">
+        <v>28</v>
+      </c>
+      <c r="I97" t="n">
+        <v>22</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4</v>
+      </c>
+      <c r="K97" t="n">
+        <v>105</v>
+      </c>
+      <c r="L97" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="M97" t="n">
+        <v>9.00322580645161</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>4.078231292517007</v>
+      </c>
+      <c r="D98" t="n">
+        <v>357.8150684931508</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2645.557894736842</v>
+      </c>
+      <c r="F98" t="n">
+        <v>395.981279317159</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3041.539174054001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>29</v>
+      </c>
+      <c r="I98" t="n">
+        <v>20</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4</v>
+      </c>
+      <c r="K98" t="n">
+        <v>105</v>
+      </c>
+      <c r="L98" t="n">
+        <v>105</v>
+      </c>
+      <c r="M98" t="n">
+        <v>9.991935483870975</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="D99" t="n">
+        <v>318.9178082191781</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2284.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>348.5733143590056</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2633.373314359005</v>
+      </c>
+      <c r="H99" t="n">
+        <v>36</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4</v>
+      </c>
+      <c r="K99" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="L99" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="M99" t="n">
+        <v>17.53064516129032</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1059-2</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>6.710884353741496</v>
+      </c>
+      <c r="D100" t="n">
+        <v>306.8601860920666</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1675.52</v>
+      </c>
+      <c r="F100" t="n">
+        <v>422.9952787295488</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2098.515278729549</v>
+      </c>
+      <c r="H100" t="n">
+        <v>31</v>
+      </c>
+      <c r="I100" t="n">
+        <v>31</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>90</v>
+      </c>
+      <c r="L100" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="M100" t="n">
+        <v>17.42097026604068</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1204-2</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>6.782312925170069</v>
+      </c>
+      <c r="D101" t="n">
+        <v>305.8288442703232</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1675.52</v>
+      </c>
+      <c r="F101" t="n">
+        <v>295.5662966560696</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1971.08629665607</v>
+      </c>
+      <c r="H101" t="n">
+        <v>39</v>
+      </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4</v>
+      </c>
+      <c r="K101" t="n">
+        <v>89</v>
+      </c>
+      <c r="L101" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="M101" t="n">
+        <v>10.62989045383412</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1878-2</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>8.42517006802721</v>
+      </c>
+      <c r="D102" t="n">
+        <v>276.836679725759</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2513.28</v>
+      </c>
+      <c r="F102" t="n">
+        <v>392.5690139093229</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2905.849013909323</v>
+      </c>
+      <c r="H102" t="n">
+        <v>28</v>
+      </c>
+      <c r="I102" t="n">
+        <v>21</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4</v>
+      </c>
+      <c r="K102" t="n">
+        <v>78</v>
+      </c>
+      <c r="L102" t="n">
+        <v>81</v>
+      </c>
+      <c r="M102" t="n">
+        <v>6.285602503912372</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2052-2</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>8.605442176870747</v>
+      </c>
+      <c r="D103" t="n">
+        <v>274.831292850147</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2792.533333333333</v>
+      </c>
+      <c r="F103" t="n">
+        <v>422.0850926708963</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3214.61842600423</v>
+      </c>
+      <c r="H103" t="n">
+        <v>27</v>
+      </c>
+      <c r="I103" t="n">
+        <v>19</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>78</v>
+      </c>
+      <c r="L103" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M103" t="n">
+        <v>8.436619718309856</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2140-2</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>8.836734693877549</v>
+      </c>
+      <c r="D104" t="n">
+        <v>271.3361900097943</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2645.557894736842</v>
+      </c>
+      <c r="F104" t="n">
+        <v>462.9123320835675</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3108.47022682041</v>
+      </c>
+      <c r="H104" t="n">
+        <v>24</v>
+      </c>
+      <c r="I104" t="n">
+        <v>20</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="L104" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M104" t="n">
+        <v>7.514866979655721</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>295-2</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>7.945578231292516</v>
+      </c>
+      <c r="D105" t="n">
+        <v>286.7490205680705</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1570.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>444.0881649754019</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2014.888164975402</v>
+      </c>
+      <c r="H105" t="n">
+        <v>30</v>
+      </c>
+      <c r="I105" t="n">
+        <v>25</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3</v>
+      </c>
+      <c r="K105" t="n">
+        <v>83</v>
+      </c>
+      <c r="L105" t="n">
+        <v>85</v>
+      </c>
+      <c r="M105" t="n">
+        <v>18.42957746478874</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>303-2</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>9.15986394557823</v>
+      </c>
+      <c r="D106" t="n">
+        <v>265.9502938295788</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2645.557894736842</v>
+      </c>
+      <c r="F106" t="n">
+        <v>394.791164175261</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3040.349058912103</v>
+      </c>
+      <c r="H106" t="n">
+        <v>29</v>
+      </c>
+      <c r="I106" t="n">
+        <v>20</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4</v>
+      </c>
+      <c r="K106" t="n">
+        <v>77</v>
+      </c>
+      <c r="L106" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M106" t="n">
+        <v>6.438184663536788</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>319-2</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9.193877551020407</v>
+      </c>
+      <c r="D107" t="n">
+        <v>266.2654260528893</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2284.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>427.2493808353398</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2712.049380835339</v>
+      </c>
+      <c r="H107" t="n">
+        <v>27</v>
+      </c>
+      <c r="I107" t="n">
+        <v>23</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>75</v>
+      </c>
+      <c r="L107" t="n">
+        <v>80</v>
+      </c>
+      <c r="M107" t="n">
+        <v>8.219874804381845</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>464-2</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="D108" t="n">
+        <v>314.0222820763956</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1675.52</v>
+      </c>
+      <c r="F108" t="n">
+        <v>331.9357703780419</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2007.455770378042</v>
+      </c>
+      <c r="H108" t="n">
+        <v>33</v>
+      </c>
+      <c r="I108" t="n">
+        <v>31</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4</v>
+      </c>
+      <c r="K108" t="n">
+        <v>90</v>
+      </c>
+      <c r="L108" t="n">
+        <v>90</v>
+      </c>
+      <c r="M108" t="n">
+        <v>7.521909233176842</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>513-2</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>7.340136054421769</v>
+      </c>
+      <c r="D109" t="n">
+        <v>296.3462291870715</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1733.296551724138</v>
+      </c>
+      <c r="F109" t="n">
+        <v>333.9717804868719</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2067.26833221101</v>
+      </c>
+      <c r="H109" t="n">
+        <v>33</v>
+      </c>
+      <c r="I109" t="n">
+        <v>30</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4</v>
+      </c>
+      <c r="K109" t="n">
+        <v>84</v>
+      </c>
+      <c r="L109" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="M109" t="n">
+        <v>6.670579029733972</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>759-2</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>9.360544217687075</v>
+      </c>
+      <c r="D110" t="n">
+        <v>262.5984329089129</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2356.2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>414.4824752218852</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2770.682475221885</v>
+      </c>
+      <c r="H110" t="n">
+        <v>27</v>
+      </c>
+      <c r="I110" t="n">
+        <v>17</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3</v>
+      </c>
+      <c r="K110" t="n">
+        <v>72</v>
+      </c>
+      <c r="L110" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M110" t="n">
+        <v>7.273865414710485</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>961-2</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C111" t="n">
         <v>9.289115646258502</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D111" t="n">
         <v>264.4032810969637</v>
       </c>
-      <c r="E93" t="n">
-        <v>2094.4</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="E111" t="n">
+        <v>2217.6</v>
+      </c>
+      <c r="F111" t="n">
         <v>490.182264345998</v>
       </c>
-      <c r="G93" t="n">
-        <v>2584.582264345998</v>
-      </c>
-      <c r="H93" t="n">
+      <c r="G111" t="n">
+        <v>2707.782264345998</v>
+      </c>
+      <c r="H111" t="n">
         <v>23</v>
       </c>
-      <c r="I93" t="n">
-        <v>19</v>
-      </c>
-      <c r="J93" t="n">
+      <c r="I111" t="n">
+        <v>18</v>
+      </c>
+      <c r="J111" t="n">
         <v>3</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K111" t="n">
         <v>72</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L111" t="n">
         <v>80.5</v>
       </c>
-      <c r="M93" t="n">
+      <c r="M111" t="n">
         <v>6.807511737089214</v>
       </c>
     </row>
@@ -4684,10 +5494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1095.705237072907</v>
+        <v>1123.077695946698</v>
       </c>
       <c r="C2" t="n">
-        <v>195.4583143239155</v>
+        <v>204.348685496051</v>
       </c>
     </row>
     <row r="3">
@@ -4697,10 +5507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1428.210866264538</v>
+        <v>1414.569550773486</v>
       </c>
       <c r="C3" t="n">
-        <v>226.3482967638507</v>
+        <v>228.7719862064716</v>
       </c>
     </row>
     <row r="4">
@@ -4710,10 +5520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1636.501756214643</v>
+        <v>1516.553813084453</v>
       </c>
       <c r="C4" t="n">
-        <v>282.25076601091</v>
+        <v>289.1191872428324</v>
       </c>
     </row>
     <row r="5">
@@ -4723,10 +5533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1856.104461538461</v>
+        <v>1848.924672130195</v>
       </c>
       <c r="C5" t="n">
-        <v>337.4363916759872</v>
+        <v>340.6375154251814</v>
       </c>
     </row>
     <row r="6">
@@ -4736,10 +5546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1970.842572516624</v>
+        <v>2009.599456510773</v>
       </c>
       <c r="C6" t="n">
-        <v>385.3633852686427</v>
+        <v>377.7277383770604</v>
       </c>
     </row>
   </sheetData>

--- a/plots-eff1-new-both/particle_both_motion_data.xlsx
+++ b/plots-eff1-new-both/particle_both_motion_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:Q208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,26 @@
           <t>Margin</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Inner_Radius_cm</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Revolution_Radius_cm</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>radius / dz_half</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>High_Speed</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,7 +536,7 @@
         <v>0.445578231292517</v>
       </c>
       <c r="D2" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E2" t="n">
         <v>1018.897297297297</v>
@@ -545,6 +565,18 @@
       <c r="M2" t="n">
         <v>15</v>
       </c>
+      <c r="N2" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.130396713140702</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8838740257004424</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -561,7 +593,7 @@
         <v>1.897959183673469</v>
       </c>
       <c r="D3" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E3" t="n">
         <v>1478.4</v>
@@ -590,6 +622,18 @@
       <c r="M3" t="n">
         <v>12.5</v>
       </c>
+      <c r="N3" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.155149188388227</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9032283547503687</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,7 +650,7 @@
         <v>3.244897959183673</v>
       </c>
       <c r="D4" t="n">
-        <v>371.1301369863014</v>
+        <v>2.524694809430622</v>
       </c>
       <c r="E4" t="n">
         <v>1018.897297297297</v>
@@ -635,6 +679,18 @@
       <c r="M4" t="n">
         <v>10.73225806451615</v>
       </c>
+      <c r="N4" t="n">
+        <v>1.262347404715311</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.156087423878517</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9158235043381282</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -651,7 +707,7 @@
         <v>4.040816326530612</v>
       </c>
       <c r="D5" t="n">
-        <v>358.8630136986301</v>
+        <v>2.441244991147143</v>
       </c>
       <c r="E5" t="n">
         <v>1108.8</v>
@@ -680,6 +736,18 @@
       <c r="M5" t="n">
         <v>10.73709677419356</v>
       </c>
+      <c r="N5" t="n">
+        <v>1.220622495573572</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.11431460672017</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9129068248054469</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -696,7 +764,7 @@
         <v>0.3979591836734694</v>
       </c>
       <c r="D6" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E6" t="n">
         <v>1346.4</v>
@@ -725,6 +793,18 @@
       <c r="M6" t="n">
         <v>36</v>
       </c>
+      <c r="N6" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9224759210614939</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.7212976616810618</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -741,7 +821,7 @@
         <v>5.08843537414966</v>
       </c>
       <c r="D7" t="n">
-        <v>339.568493150685</v>
+        <v>2.309989749324387</v>
       </c>
       <c r="E7" t="n">
         <v>966.6461538461538</v>
@@ -770,6 +850,18 @@
       <c r="M7" t="n">
         <v>10.1483870967742</v>
       </c>
+      <c r="N7" t="n">
+        <v>1.154994874662194</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.054515794496113</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9130047393539571</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -786,7 +878,7 @@
         <v>0.4863945578231292</v>
       </c>
       <c r="D8" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E8" t="n">
         <v>1396.266666666667</v>
@@ -815,6 +907,18 @@
       <c r="M8" t="n">
         <v>21.5</v>
       </c>
+      <c r="N8" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.066040277497138</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8335527701706341</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -831,7 +935,7 @@
         <v>4.5</v>
       </c>
       <c r="D9" t="n">
-        <v>351.25</v>
+        <v>2.389455782312925</v>
       </c>
       <c r="E9" t="n">
         <v>1069.48085106383</v>
@@ -860,6 +964,18 @@
       <c r="M9" t="n">
         <v>13.00967741935483</v>
       </c>
+      <c r="N9" t="n">
+        <v>1.194727891156462</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.065919203836118</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8921857535311563</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -876,7 +992,7 @@
         <v>1.979591836734694</v>
       </c>
       <c r="D10" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E10" t="n">
         <v>1185.509433962264</v>
@@ -905,6 +1021,18 @@
       <c r="M10" t="n">
         <v>11.5</v>
       </c>
+      <c r="N10" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.165050178487236</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9109700863703392</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -921,7 +1049,7 @@
         <v>0.8367346938775511</v>
       </c>
       <c r="D11" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E11" t="n">
         <v>1346.4</v>
@@ -950,6 +1078,18 @@
       <c r="M11" t="n">
         <v>15</v>
       </c>
+      <c r="N11" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.130396713140702</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8838740257004424</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -966,7 +1106,7 @@
         <v>4.061224489795919</v>
       </c>
       <c r="D12" t="n">
-        <v>358.1232876712328</v>
+        <v>2.436212841300904</v>
       </c>
       <c r="E12" t="n">
         <v>661.3894736842104</v>
@@ -995,6 +1135,18 @@
       <c r="M12" t="n">
         <v>15.70645161290321</v>
       </c>
+      <c r="N12" t="n">
+        <v>1.218106420650452</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.062596998740519</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8723351102386498</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1011,7 +1163,7 @@
         <v>2.370748299319728</v>
       </c>
       <c r="D13" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E13" t="n">
         <v>819.5478260869564</v>
@@ -1040,6 +1192,18 @@
       <c r="M13" t="n">
         <v>11.5</v>
       </c>
+      <c r="N13" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.165050178487236</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9109700863703392</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1056,7 +1220,7 @@
         <v>1.673469387755102</v>
       </c>
       <c r="D14" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E14" t="n">
         <v>1142.4</v>
@@ -1085,6 +1249,18 @@
       <c r="M14" t="n">
         <v>11</v>
       </c>
+      <c r="N14" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.170000673536741</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.9148409521803245</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1101,7 +1277,7 @@
         <v>0.9761904761904762</v>
       </c>
       <c r="D15" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E15" t="n">
         <v>1216.103225806452</v>
@@ -1130,6 +1306,18 @@
       <c r="M15" t="n">
         <v>12</v>
       </c>
+      <c r="N15" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.160099683437732</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.907099220560354</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1146,7 +1334,7 @@
         <v>5.204081632653061</v>
       </c>
       <c r="D16" t="n">
-        <v>338.027397260274</v>
+        <v>2.299506103811388</v>
       </c>
       <c r="E16" t="n">
         <v>739.1999999999999</v>
@@ -1175,6 +1363,18 @@
       <c r="M16" t="n">
         <v>17.87258064516129</v>
       </c>
+      <c r="N16" t="n">
+        <v>1.149753051905694</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.972796807894196</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8460919553827699</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1191,7 +1391,7 @@
         <v>1.843537414965986</v>
       </c>
       <c r="D17" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E17" t="n">
         <v>769.3714285714285</v>
@@ -1220,6 +1420,18 @@
       <c r="M17" t="n">
         <v>13.5</v>
       </c>
+      <c r="N17" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.145248198289217</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8954866231303982</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1236,7 +1448,7 @@
         <v>7.224489795918367</v>
       </c>
       <c r="D18" t="n">
-        <v>298.2083741429971</v>
+        <v>2.028628395530592</v>
       </c>
       <c r="E18" t="n">
         <v>819.5478260869564</v>
@@ -1265,6 +1477,18 @@
       <c r="M18" t="n">
         <v>8.801251956181545</v>
       </c>
+      <c r="N18" t="n">
+        <v>1.014314197765296</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.927173089288251</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9140886436677792</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1281,7 +1505,7 @@
         <v>8.642857142857142</v>
       </c>
       <c r="D19" t="n">
-        <v>274.4875122428991</v>
+        <v>1.867261988046933</v>
       </c>
       <c r="E19" t="n">
         <v>1277.938983050847</v>
@@ -1310,6 +1534,18 @@
       <c r="M19" t="n">
         <v>8.266823161189365</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.9336309940234664</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.8517812597542649</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9123318154676169</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1326,7 +1562,7 @@
         <v>9.340136054421768</v>
       </c>
       <c r="D20" t="n">
-        <v>263.7443682664054</v>
+        <v>1.794179375961942</v>
       </c>
       <c r="E20" t="n">
         <v>1288.861538461538</v>
@@ -1355,6 +1591,18 @@
       <c r="M20" t="n">
         <v>9.967918622848202</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.8970896879809709</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.7983974243884144</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.889986179849333</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1371,7 +1619,7 @@
         <v>3.908163265306122</v>
       </c>
       <c r="D21" t="n">
-        <v>359.818493150685</v>
+        <v>2.447744851365204</v>
       </c>
       <c r="E21" t="n">
         <v>1159.975384615384</v>
@@ -1400,6 +1648,18 @@
       <c r="M21" t="n">
         <v>11.47258064516132</v>
       </c>
+      <c r="N21" t="n">
+        <v>1.223872425682602</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.110282518304767</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.9071881145500266</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1416,7 +1676,7 @@
         <v>1.965986394557823</v>
       </c>
       <c r="D22" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E22" t="n">
         <v>1461.209302325581</v>
@@ -1445,6 +1705,18 @@
       <c r="M22" t="n">
         <v>20.5</v>
       </c>
+      <c r="N22" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.075941267596147</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8412945017906046</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1461,7 +1733,7 @@
         <v>2.829931972789116</v>
       </c>
       <c r="D23" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E23" t="n">
         <v>919.4926829268292</v>
@@ -1490,6 +1762,18 @@
       <c r="M23" t="n">
         <v>18</v>
       </c>
+      <c r="N23" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.100693742843672</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8606488308405309</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1506,7 +1790,7 @@
         <v>5.023809523809524</v>
       </c>
       <c r="D24" t="n">
-        <v>340.2465753424658</v>
+        <v>2.314602553350107</v>
       </c>
       <c r="E24" t="n">
         <v>924</v>
@@ -1535,6 +1819,18 @@
       <c r="M24" t="n">
         <v>23.83387096774192</v>
       </c>
+      <c r="N24" t="n">
+        <v>1.157301276675054</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.9213223562023616</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.7960955152916934</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1551,7 +1847,7 @@
         <v>4.040816326530612</v>
       </c>
       <c r="D25" t="n">
-        <v>357.2602739726027</v>
+        <v>2.430341999813624</v>
       </c>
       <c r="E25" t="n">
         <v>1282.285714285714</v>
@@ -1580,6 +1876,18 @@
       <c r="M25" t="n">
         <v>17.71774193548384</v>
       </c>
+      <c r="N25" t="n">
+        <v>1.215170999906812</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.039747812426774</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.855639093186481</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1596,7 +1904,7 @@
         <v>6.948979591836735</v>
       </c>
       <c r="D26" t="n">
-        <v>302.0472575905974</v>
+        <v>2.054743248915629</v>
       </c>
       <c r="E26" t="n">
         <v>966.6461538461538</v>
@@ -1625,6 +1933,18 @@
       <c r="M26" t="n">
         <v>10.99921752738655</v>
       </c>
+      <c r="N26" t="n">
+        <v>1.027371624457814</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.918468480622304</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8939982950249545</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1641,7 +1961,7 @@
         <v>8.074829931972788</v>
       </c>
       <c r="D27" t="n">
-        <v>283.1106758080313</v>
+        <v>1.925922964680485</v>
       </c>
       <c r="E27" t="n">
         <v>919.4926829268292</v>
@@ -1670,6 +1990,18 @@
       <c r="M27" t="n">
         <v>7.838028169014081</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.9629614823402426</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8853572430430735</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.9194108583568983</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1686,7 +2018,7 @@
         <v>6.438775510204081</v>
       </c>
       <c r="D28" t="n">
-        <v>311.1574436826641</v>
+        <v>2.116717303963701</v>
       </c>
       <c r="E28" t="n">
         <v>1256.64</v>
@@ -1715,6 +2047,18 @@
       <c r="M28" t="n">
         <v>13.32785602503913</v>
       </c>
+      <c r="N28" t="n">
+        <v>1.05835865198185</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9263996814369087</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8753173413399706</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1731,7 +2075,7 @@
         <v>6.836734693877552</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7196376101861</v>
+        <v>2.093330868096504</v>
       </c>
       <c r="E29" t="n">
         <v>897.5999999999999</v>
@@ -1760,6 +2104,18 @@
       <c r="M29" t="n">
         <v>8.838810641627532</v>
       </c>
+      <c r="N29" t="n">
+        <v>1.046665434048252</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9591524573984743</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.9163887773466463</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1776,7 +2132,7 @@
         <v>7.948979591836735</v>
       </c>
       <c r="D30" t="n">
-        <v>285.1733594515181</v>
+        <v>1.939954826200803</v>
       </c>
       <c r="E30" t="n">
         <v>919.4926829268292</v>
@@ -1805,6 +2161,18 @@
       <c r="M30" t="n">
         <v>11.64788732394365</v>
       </c>
+      <c r="N30" t="n">
+        <v>0.9699774131004016</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.8546517960316526</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8811048427404858</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1821,7 +2189,7 @@
         <v>10.13605442176871</v>
       </c>
       <c r="D31" t="n">
-        <v>251.0531341821743</v>
+        <v>1.707844450218873</v>
       </c>
       <c r="E31" t="n">
         <v>1288.861538461538</v>
@@ -1850,6 +2218,18 @@
       <c r="M31" t="n">
         <v>12.04773082942097</v>
       </c>
+      <c r="N31" t="n">
+        <v>0.8539222251094365</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.7346377614518032</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8603099203298683</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1866,7 +2246,7 @@
         <v>7.884353741496599</v>
       </c>
       <c r="D32" t="n">
-        <v>287.3792850146914</v>
+        <v>1.954961122548921</v>
       </c>
       <c r="E32" t="n">
         <v>1648.052459016393</v>
@@ -1895,6 +2275,18 @@
       <c r="M32" t="n">
         <v>14.7300469483568</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.9774805612744607</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.831638512280829</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8507980058411805</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1911,7 +2303,7 @@
         <v>8.687074829931973</v>
       </c>
       <c r="D33" t="n">
-        <v>273.7999510284035</v>
+        <v>1.862584700873493</v>
       </c>
       <c r="E33" t="n">
         <v>837.76</v>
@@ -1940,6 +2332,18 @@
       <c r="M33" t="n">
         <v>13.05790297339593</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.9312923504367465</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8020061823833216</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8611755288306686</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1956,7 +2360,7 @@
         <v>6.08843537414966</v>
       </c>
       <c r="D34" t="n">
-        <v>314.7957884427032</v>
+        <v>2.141467948589817</v>
       </c>
       <c r="E34" t="n">
         <v>1599.36</v>
@@ -1985,6 +2389,18 @@
       <c r="M34" t="n">
         <v>15.88967136150234</v>
       </c>
+      <c r="N34" t="n">
+        <v>1.070733974294909</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.9134104954681528</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8530694994241167</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2001,7 +2417,7 @@
         <v>6.122448979591836</v>
       </c>
       <c r="D35" t="n">
-        <v>314.6811949069539</v>
+        <v>2.140688400727578</v>
       </c>
       <c r="E35" t="n">
         <v>824.0262295081967</v>
@@ -2030,6 +2446,18 @@
       <c r="M35" t="n">
         <v>11.52582159624413</v>
       </c>
+      <c r="N35" t="n">
+        <v>1.070344200363789</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.9562271548564213</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8933828524799953</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2046,7 +2474,7 @@
         <v>6.758503401360545</v>
       </c>
       <c r="D36" t="n">
-        <v>306.0293829578844</v>
+        <v>2.081832537128466</v>
       </c>
       <c r="E36" t="n">
         <v>1142.4</v>
@@ -2075,6 +2503,18 @@
       <c r="M36" t="n">
         <v>8.387323943661983</v>
       </c>
+      <c r="N36" t="n">
+        <v>1.040916268564233</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.9578734572408468</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.9202214300695585</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2091,7 +2531,7 @@
         <v>3.425170068027211</v>
       </c>
       <c r="D37" t="n">
-        <v>368.818493150685</v>
+        <v>2.508969341161122</v>
       </c>
       <c r="E37" t="n">
         <v>1496</v>
@@ -2120,6 +2560,18 @@
       <c r="M37" t="n">
         <v>37.29193548387099</v>
       </c>
+      <c r="N37" t="n">
+        <v>1.254484670580561</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8852575865818385</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7056742958621818</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2136,7 +2588,7 @@
         <v>0.6496598639455783</v>
       </c>
       <c r="D38" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E38" t="n">
         <v>1523.2</v>
@@ -2165,6 +2617,18 @@
       <c r="M38" t="n">
         <v>22</v>
       </c>
+      <c r="N38" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.061089782447632</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8296819043606488</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2181,7 +2645,7 @@
         <v>4.438775510204081</v>
       </c>
       <c r="D39" t="n">
-        <v>353.1917808219177</v>
+        <v>2.402665175659304</v>
       </c>
       <c r="E39" t="n">
         <v>1018.897297297297</v>
@@ -2210,6 +2674,18 @@
       <c r="M39" t="n">
         <v>22.83709677419353</v>
       </c>
+      <c r="N39" t="n">
+        <v>1.201332587829652</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.9752227187782311</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8117841209486251</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2226,7 +2702,7 @@
         <v>3.510204081632653</v>
       </c>
       <c r="D40" t="n">
-        <v>367.4931506849315</v>
+        <v>2.499953406019942</v>
       </c>
       <c r="E40" t="n">
         <v>1142.4</v>
@@ -2255,6 +2731,18 @@
       <c r="M40" t="n">
         <v>18.86451612903227</v>
       </c>
+      <c r="N40" t="n">
+        <v>1.249976703009971</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.06319931559381</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8505753051505704</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2271,7 +2759,7 @@
         <v>3.030612244897959</v>
       </c>
       <c r="D41" t="n">
-        <v>375.2294520547945</v>
+        <v>2.552581306495201</v>
       </c>
       <c r="E41" t="n">
         <v>1322.778947368421</v>
@@ -2300,6 +2788,18 @@
       <c r="M41" t="n">
         <v>14.22419354838712</v>
       </c>
+      <c r="N41" t="n">
+        <v>1.2762906532476</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.135457053758619</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8896539756593675</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2316,7 +2816,7 @@
         <v>3.068027210884354</v>
       </c>
       <c r="D42" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E42" t="n">
         <v>2056.32</v>
@@ -2345,6 +2845,18 @@
       <c r="M42" t="n">
         <v>29.47903225806454</v>
       </c>
+      <c r="N42" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.9870399581103599</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7717812438416112</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2361,7 +2873,7 @@
         <v>6.738095238095238</v>
       </c>
       <c r="D43" t="n">
-        <v>306.3158667972576</v>
+        <v>2.083781406784066</v>
       </c>
       <c r="E43" t="n">
         <v>1428</v>
@@ -2390,6 +2902,18 @@
       <c r="M43" t="n">
         <v>9.105633802816897</v>
       </c>
+      <c r="N43" t="n">
+        <v>1.041890703392033</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.9517359132651327</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.9134700119375406</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2406,7 +2930,7 @@
         <v>8.336734693877549</v>
       </c>
       <c r="D44" t="n">
-        <v>279.0999020568071</v>
+        <v>1.898638789502089</v>
       </c>
       <c r="E44" t="n">
         <v>2154.24</v>
@@ -2435,6 +2959,18 @@
       <c r="M44" t="n">
         <v>7.649452269170581</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.9493193947510445</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8735822435711378</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.9202195261166359</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2451,7 +2987,7 @@
         <v>6.833333333333333</v>
       </c>
       <c r="D45" t="n">
-        <v>305.8001958863859</v>
+        <v>2.080273441403986</v>
       </c>
       <c r="E45" t="n">
         <v>1122</v>
@@ -2480,6 +3016,18 @@
       <c r="M45" t="n">
         <v>16.55712050078247</v>
       </c>
+      <c r="N45" t="n">
+        <v>1.040136720701993</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8762048345556317</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8423939056437477</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2496,7 +3044,7 @@
         <v>9.064625850340136</v>
       </c>
       <c r="D46" t="n">
-        <v>267.6691968658179</v>
+        <v>1.820878890243659</v>
       </c>
       <c r="E46" t="n">
         <v>1216.103225806452</v>
@@ -2525,6 +3073,18 @@
       <c r="M46" t="n">
         <v>9.471830985915489</v>
       </c>
+      <c r="N46" t="n">
+        <v>0.9104394451218295</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.8166589403107851</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8969942423809468</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2541,7 +3101,7 @@
         <v>6.928571428571428</v>
       </c>
       <c r="D47" t="n">
-        <v>303.3937316356513</v>
+        <v>2.063902936296948</v>
       </c>
       <c r="E47" t="n">
         <v>1365.913043478261</v>
@@ -2570,6 +3130,18 @@
       <c r="M47" t="n">
         <v>10.54773082942097</v>
       </c>
+      <c r="N47" t="n">
+        <v>1.031951468148474</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.9275184896393552</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8988004942747045</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2586,7 +3158,7 @@
         <v>6.612244897959184</v>
       </c>
       <c r="D48" t="n">
-        <v>309.8682664054849</v>
+        <v>2.107947390513503</v>
       </c>
       <c r="E48" t="n">
         <v>1092.730434782609</v>
@@ -2615,6 +3187,18 @@
       <c r="M48" t="n">
         <v>9.318466353677621</v>
       </c>
+      <c r="N48" t="n">
+        <v>1.053973695256751</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.9617116521510322</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.9124626700638447</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2631,7 +3215,7 @@
         <v>6.472789115646258</v>
       </c>
       <c r="D49" t="n">
-        <v>311.5298726738491</v>
+        <v>2.11925083451598</v>
       </c>
       <c r="E49" t="n">
         <v>753.9839999999999</v>
@@ -2660,6 +3244,18 @@
       <c r="M49" t="n">
         <v>7.172926447574326</v>
       </c>
+      <c r="N49" t="n">
+        <v>1.05962541725799</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.9886063435196305</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.9329771893145627</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2676,7 +3272,7 @@
         <v>7.095238095238096</v>
       </c>
       <c r="D50" t="n">
-        <v>300.7007835455436</v>
+        <v>2.04558356153431</v>
       </c>
       <c r="E50" t="n">
         <v>1698.162162162162</v>
@@ -2705,6 +3301,18 @@
       <c r="M50" t="n">
         <v>7.543818466353684</v>
       </c>
+      <c r="N50" t="n">
+        <v>1.022791780767155</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.9481005088230591</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.9269731402338088</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2721,7 +3329,7 @@
         <v>8.85034013605442</v>
       </c>
       <c r="D51" t="n">
-        <v>270.9064642507345</v>
+        <v>1.842901117351936</v>
       </c>
       <c r="E51" t="n">
         <v>1396.266666666667</v>
@@ -2750,6 +3358,18 @@
       <c r="M51" t="n">
         <v>7.248043818466357</v>
       </c>
+      <c r="N51" t="n">
+        <v>0.9214505586759678</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.8496877485921425</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.9221197389180149</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2766,7 +3386,7 @@
         <v>7.319727891156462</v>
       </c>
       <c r="D52" t="n">
-        <v>297.3489226248776</v>
+        <v>2.022781786563793</v>
       </c>
       <c r="E52" t="n">
         <v>1628.977777777778</v>
@@ -2795,6 +3415,18 @@
       <c r="M52" t="n">
         <v>6.786384976525824</v>
       </c>
+      <c r="N52" t="n">
+        <v>1.011390893281896</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.9441989628212447</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.9335648255219914</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2811,7 +3443,7 @@
         <v>9.353741496598639</v>
       </c>
       <c r="D53" t="n">
-        <v>263.4578844270324</v>
+        <v>1.792230506306343</v>
       </c>
       <c r="E53" t="n">
         <v>1358.52972972973</v>
@@ -2840,6 +3472,18 @@
       <c r="M53" t="n">
         <v>12.30751173708921</v>
       </c>
+      <c r="N53" t="n">
+        <v>0.8961152531531713</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.7742587013008028</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8640168757047819</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2856,7 +3500,7 @@
         <v>7.806122448979592</v>
       </c>
       <c r="D54" t="n">
-        <v>288.238736532811</v>
+        <v>1.960807731515721</v>
       </c>
       <c r="E54" t="n">
         <v>1933.292307692308</v>
@@ -2885,6 +3529,18 @@
       <c r="M54" t="n">
         <v>10.2300469483568</v>
       </c>
+      <c r="N54" t="n">
+        <v>0.9804038657578605</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.8791162722097734</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.896687888445043</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2901,7 +3557,7 @@
         <v>3.561224489795918</v>
       </c>
       <c r="D55" t="n">
-        <v>364.7808219178082</v>
+        <v>2.481502189917063</v>
       </c>
       <c r="E55" t="n">
         <v>819.5478260869564</v>
@@ -2930,6 +3586,18 @@
       <c r="M55" t="n">
         <v>27.4548387096774</v>
       </c>
+      <c r="N55" t="n">
+        <v>1.240751094958531</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.9689210087241015</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.7809148931329253</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2946,7 +3614,7 @@
         <v>1.629251700680272</v>
       </c>
       <c r="D56" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E56" t="n">
         <v>1216.103225806452</v>
@@ -2975,6 +3643,18 @@
       <c r="M56" t="n">
         <v>12</v>
       </c>
+      <c r="N56" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.160099683437732</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.907099220560354</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2991,7 +3671,7 @@
         <v>2.459183673469388</v>
       </c>
       <c r="D57" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E57" t="n">
         <v>1523.2</v>
@@ -3020,6 +3700,18 @@
       <c r="M57" t="n">
         <v>10.5</v>
       </c>
+      <c r="N57" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.174951168586246</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.9187118179903097</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3036,7 +3728,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="D58" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E58" t="n">
         <v>1396.266666666667</v>
@@ -3065,6 +3757,18 @@
       <c r="M58" t="n">
         <v>35</v>
       </c>
+      <c r="N58" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.9323769111605037</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7290393933010322</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3081,7 +3785,7 @@
         <v>5.581632653061225</v>
       </c>
       <c r="D59" t="n">
-        <v>329.2123287671233</v>
+        <v>2.239539651477029</v>
       </c>
       <c r="E59" t="n">
         <v>1225.990243902439</v>
@@ -3110,6 +3814,18 @@
       <c r="M59" t="n">
         <v>34.08387096774194</v>
       </c>
+      <c r="N59" t="n">
+        <v>1.119769825738514</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.7823057567509705</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.6986308603511632</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3126,7 +3842,7 @@
         <v>0.7448979591836735</v>
       </c>
       <c r="D60" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E60" t="n">
         <v>1795.2</v>
@@ -3155,6 +3871,18 @@
       <c r="M60" t="n">
         <v>16.5</v>
       </c>
+      <c r="N60" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.115545227992187</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8722614282704867</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3171,7 +3899,7 @@
         <v>6.115646258503402</v>
       </c>
       <c r="D61" t="n">
-        <v>320.0582191780822</v>
+        <v>2.177266797129811</v>
       </c>
       <c r="E61" t="n">
         <v>1102.315789473684</v>
@@ -3200,6 +3928,18 @@
       <c r="M61" t="n">
         <v>23.77580645161291</v>
       </c>
+      <c r="N61" t="n">
+        <v>1.088633398564905</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.8532293742915102</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7837618939638291</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3216,7 +3956,7 @@
         <v>0.3877551020408163</v>
       </c>
       <c r="D62" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E62" t="n">
         <v>1216.103225806452</v>
@@ -3245,6 +3985,18 @@
       <c r="M62" t="n">
         <v>14.5</v>
       </c>
+      <c r="N62" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.135347208190207</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8877448915104276</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3261,7 +4013,7 @@
         <v>5.040816326530612</v>
       </c>
       <c r="D63" t="n">
-        <v>339.9075342465754</v>
+        <v>2.312296151337248</v>
       </c>
       <c r="E63" t="n">
         <v>1018.897297297297</v>
@@ -3290,6 +4042,18 @@
       <c r="M63" t="n">
         <v>12.69032258064516</v>
       </c>
+      <c r="N63" t="n">
+        <v>1.156148075668624</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.030501317444414</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.891322953462042</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3306,7 +4070,7 @@
         <v>4.976190476190476</v>
       </c>
       <c r="D64" t="n">
-        <v>341.4178082191781</v>
+        <v>2.322570123939987</v>
       </c>
       <c r="E64" t="n">
         <v>1309</v>
@@ -3335,6 +4099,18 @@
       <c r="M64" t="n">
         <v>9.199999999999989</v>
       </c>
+      <c r="N64" t="n">
+        <v>1.161285061969994</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.070195953059103</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.9215618008929106</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3351,7 +4127,7 @@
         <v>2.928571428571428</v>
       </c>
       <c r="D65" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E65" t="n">
         <v>1523.2</v>
@@ -3380,6 +4156,18 @@
       <c r="M65" t="n">
         <v>10.34677419354841</v>
       </c>
+      <c r="N65" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.176468255778836</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.9198980510611113</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3396,7 +4184,7 @@
         <v>1.965986394557823</v>
       </c>
       <c r="D66" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E66" t="n">
         <v>1142.4</v>
@@ -3425,6 +4213,18 @@
       <c r="M66" t="n">
         <v>13.5</v>
       </c>
+      <c r="N66" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.145248198289217</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.8954866231303982</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3441,7 +4241,7 @@
         <v>4.340136054421769</v>
       </c>
       <c r="D67" t="n">
-        <v>353.5924657534246</v>
+        <v>2.405390923492685</v>
       </c>
       <c r="E67" t="n">
         <v>1256.64</v>
@@ -3470,6 +4270,18 @@
       <c r="M67" t="n">
         <v>10.45967741935482</v>
       </c>
+      <c r="N67" t="n">
+        <v>1.202695461746342</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.099134299178473</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.9138924475382187</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3486,7 +4298,7 @@
         <v>0.9115646258503401</v>
       </c>
       <c r="D68" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E68" t="n">
         <v>1478.4</v>
@@ -3515,6 +4327,18 @@
       <c r="M68" t="n">
         <v>15.5</v>
       </c>
+      <c r="N68" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.125446218091197</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8800031598904572</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3531,7 +4355,7 @@
         <v>0.4353741496598639</v>
       </c>
       <c r="D69" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E69" t="n">
         <v>2026.838709677419</v>
@@ -3560,6 +4384,18 @@
       <c r="M69" t="n">
         <v>30</v>
       </c>
+      <c r="N69" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.9818818616555534</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.7677480514008848</v>
+      </c>
+      <c r="Q69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3576,7 +4412,7 @@
         <v>0.5170068027210885</v>
       </c>
       <c r="D70" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E70" t="n">
         <v>1532.487804878049</v>
@@ -3605,6 +4441,18 @@
       <c r="M70" t="n">
         <v>16</v>
       </c>
+      <c r="N70" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.120495723041692</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.8761322940804719</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3621,7 +4469,7 @@
         <v>3.312925170068027</v>
       </c>
       <c r="D71" t="n">
-        <v>371.8390410958904</v>
+        <v>2.529517286366601</v>
       </c>
       <c r="E71" t="n">
         <v>1436.16</v>
@@ -3650,6 +4498,18 @@
       <c r="M71" t="n">
         <v>9.333870967741916</v>
       </c>
+      <c r="N71" t="n">
+        <v>1.264758643183301</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.172344079146252</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.926931067413425</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3666,7 +4526,7 @@
         <v>2.959183673469388</v>
       </c>
       <c r="D72" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E72" t="n">
         <v>1933.292307692308</v>
@@ -3695,6 +4555,18 @@
       <c r="M72" t="n">
         <v>30.60161290322583</v>
       </c>
+      <c r="N72" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.9759252982572777</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.7630905257649991</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3711,7 +4583,7 @@
         <v>0.3163265306122449</v>
       </c>
       <c r="D73" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E73" t="n">
         <v>2037.794594594594</v>
@@ -3740,6 +4612,18 @@
       <c r="M73" t="n">
         <v>18</v>
       </c>
+      <c r="N73" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.100693742843672</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.8606488308405309</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3756,7 +4640,7 @@
         <v>1.346938775510204</v>
       </c>
       <c r="D74" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E74" t="n">
         <v>1256.64</v>
@@ -3785,6 +4669,18 @@
       <c r="M74" t="n">
         <v>12</v>
       </c>
+      <c r="N74" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.160099683437732</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.907099220560354</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3801,7 +4697,7 @@
         <v>0.4591836734693878</v>
       </c>
       <c r="D75" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E75" t="n">
         <v>1108.8</v>
@@ -3830,6 +4726,18 @@
       <c r="M75" t="n">
         <v>18.5</v>
       </c>
+      <c r="N75" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.095743247794167</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.8567779650305457</v>
+      </c>
+      <c r="Q75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3846,7 +4754,7 @@
         <v>4.751700680272108</v>
       </c>
       <c r="D76" t="n">
-        <v>346.5034246575342</v>
+        <v>2.357166154132886</v>
       </c>
       <c r="E76" t="n">
         <v>1142.4</v>
@@ -3875,6 +4783,18 @@
       <c r="M76" t="n">
         <v>11.94677419354838</v>
       </c>
+      <c r="N76" t="n">
+        <v>1.178583077066443</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.060298184061013</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.8996380524147292</v>
+      </c>
+      <c r="Q76" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3891,7 +4811,7 @@
         <v>6.112244897959184</v>
       </c>
       <c r="D77" t="n">
-        <v>320.9212328767123</v>
+        <v>2.183137638617091</v>
       </c>
       <c r="E77" t="n">
         <v>1795.2</v>
@@ -3920,6 +4840,18 @@
       <c r="M77" t="n">
         <v>16.65322580645162</v>
       </c>
+      <c r="N77" t="n">
+        <v>1.091568819308545</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.9266853954822917</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8489482102184825</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3936,7 +4868,7 @@
         <v>3.751700680272109</v>
       </c>
       <c r="D78" t="n">
-        <v>362.2534246575342</v>
+        <v>2.464309011275743</v>
       </c>
       <c r="E78" t="n">
         <v>785.4</v>
@@ -3965,6 +4897,18 @@
       <c r="M78" t="n">
         <v>12.19838709677418</v>
       </c>
+      <c r="N78" t="n">
+        <v>1.232154505637871</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.11137839576882</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.9019797360506124</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3981,7 +4925,7 @@
         <v>8.884353741496598</v>
       </c>
       <c r="D79" t="n">
-        <v>270.5053868756121</v>
+        <v>1.840172699834096</v>
       </c>
       <c r="E79" t="n">
         <v>1733.296551724138</v>
@@ -4010,6 +4954,18 @@
       <c r="M79" t="n">
         <v>9.442097026604074</v>
       </c>
+      <c r="N79" t="n">
+        <v>0.9200863499170481</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.8266002407427504</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8983942005196294</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4026,7 +4982,7 @@
         <v>7.428571428571428</v>
       </c>
       <c r="D80" t="n">
-        <v>293.5100391772772</v>
+        <v>1.996666933178756</v>
       </c>
       <c r="E80" t="n">
         <v>876.7255813953487</v>
@@ -4055,6 +5011,18 @@
       <c r="M80" t="n">
         <v>17.29186228482004</v>
       </c>
+      <c r="N80" t="n">
+        <v>0.9983334665893782</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.8271269093139322</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.8285076449852558</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4071,7 +5039,7 @@
         <v>1.602040816326531</v>
       </c>
       <c r="D81" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E81" t="n">
         <v>2217.6</v>
@@ -4100,6 +5068,18 @@
       <c r="M81" t="n">
         <v>12</v>
       </c>
+      <c r="N81" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.160099683437732</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.907099220560354</v>
+      </c>
+      <c r="Q81" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4116,7 +5096,7 @@
         <v>6.112244897959184</v>
       </c>
       <c r="D82" t="n">
-        <v>319.3801369863014</v>
+        <v>2.172653993104091</v>
       </c>
       <c r="E82" t="n">
         <v>1322.778947368421</v>
@@ -4145,6 +5125,18 @@
       <c r="M82" t="n">
         <v>11.5</v>
       </c>
+      <c r="N82" t="n">
+        <v>1.086326996552045</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.9724656104134315</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.895186820819141</v>
+      </c>
+      <c r="Q82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4161,7 +5153,7 @@
         <v>4.363945578231292</v>
       </c>
       <c r="D83" t="n">
-        <v>353.6849315068492</v>
+        <v>2.406019942223464</v>
       </c>
       <c r="E83" t="n">
         <v>1256.64</v>
@@ -4190,6 +5182,18 @@
       <c r="M83" t="n">
         <v>13.05161290322582</v>
       </c>
+      <c r="N83" t="n">
+        <v>1.203009971111732</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.073786080980783</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.8925828602970517</v>
+      </c>
+      <c r="Q83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4206,7 +5210,7 @@
         <v>2.527210884353742</v>
       </c>
       <c r="D84" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E84" t="n">
         <v>1256.64</v>
@@ -4235,6 +5239,18 @@
       <c r="M84" t="n">
         <v>14.5</v>
       </c>
+      <c r="N84" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.135347208190207</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.8877448915104276</v>
+      </c>
+      <c r="Q84" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4251,7 +5267,7 @@
         <v>5.98639455782313</v>
       </c>
       <c r="D85" t="n">
-        <v>320.9828767123287</v>
+        <v>2.18355698443761</v>
       </c>
       <c r="E85" t="n">
         <v>1018.897297297297</v>
@@ -4280,6 +5296,18 @@
       <c r="M85" t="n">
         <v>16.03064516129032</v>
       </c>
+      <c r="N85" t="n">
+        <v>1.091778492218805</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.9330592331961286</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.8546232041079013</v>
+      </c>
+      <c r="Q85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4296,7 +5324,7 @@
         <v>4.061224489795919</v>
       </c>
       <c r="D86" t="n">
-        <v>357.9383561643835</v>
+        <v>2.434954803839344</v>
       </c>
       <c r="E86" t="n">
         <v>1478.4</v>
@@ -4325,6 +5353,18 @@
       <c r="M86" t="n">
         <v>11.20645161290321</v>
       </c>
+      <c r="N86" t="n">
+        <v>1.217477401919672</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.106522435455284</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.9088648657548479</v>
+      </c>
+      <c r="Q86" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4341,7 +5381,7 @@
         <v>4.142857142857143</v>
       </c>
       <c r="D87" t="n">
-        <v>357.5376712328767</v>
+        <v>2.432229056005964</v>
       </c>
       <c r="E87" t="n">
         <v>2393.6</v>
@@ -4370,6 +5410,18 @@
       <c r="M87" t="n">
         <v>9.716129032258038</v>
       </c>
+      <c r="N87" t="n">
+        <v>1.216114528002982</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.119915230653892</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.9208961860631159</v>
+      </c>
+      <c r="Q87" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4386,7 +5438,7 @@
         <v>5.04421768707483</v>
       </c>
       <c r="D88" t="n">
-        <v>339.7842465753424</v>
+        <v>2.311457459696207</v>
       </c>
       <c r="E88" t="n">
         <v>1461.209302325581</v>
@@ -4415,6 +5467,18 @@
       <c r="M88" t="n">
         <v>8.454838709677404</v>
       </c>
+      <c r="N88" t="n">
+        <v>1.155728729848103</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.072017455494862</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.9275684058107271</v>
+      </c>
+      <c r="Q88" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4431,7 +5495,7 @@
         <v>5.748299319727892</v>
       </c>
       <c r="D89" t="n">
-        <v>326.8698630136986</v>
+        <v>2.223604510297269</v>
       </c>
       <c r="E89" t="n">
         <v>1108.8</v>
@@ -4460,6 +5524,18 @@
       <c r="M89" t="n">
         <v>13.66451612903225</v>
       </c>
+      <c r="N89" t="n">
+        <v>1.111802255148635</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.9765100162473253</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.8783126781090919</v>
+      </c>
+      <c r="Q89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4476,7 +5552,7 @@
         <v>3.431972789115646</v>
       </c>
       <c r="D90" t="n">
-        <v>367.7397260273973</v>
+        <v>2.501630789302022</v>
       </c>
       <c r="E90" t="n">
         <v>2037.794594594594</v>
@@ -4505,6 +5581,18 @@
       <c r="M90" t="n">
         <v>9.343548387096746</v>
       </c>
+      <c r="N90" t="n">
+        <v>1.250815394651011</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.158305014580747</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.926039941252821</v>
+      </c>
+      <c r="Q90" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4521,7 +5609,7 @@
         <v>3.391156462585034</v>
       </c>
       <c r="D91" t="n">
-        <v>369.3732876712328</v>
+        <v>2.512743453545802</v>
       </c>
       <c r="E91" t="n">
         <v>1478.4</v>
@@ -4550,6 +5638,18 @@
       <c r="M91" t="n">
         <v>11.02741935483868</v>
       </c>
+      <c r="N91" t="n">
+        <v>1.256371726772901</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.147189356923013</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.9130970814423433</v>
+      </c>
+      <c r="Q91" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4566,7 +5666,7 @@
         <v>5.989795918367347</v>
       </c>
       <c r="D92" t="n">
-        <v>320.4897260273973</v>
+        <v>2.180202217873451</v>
       </c>
       <c r="E92" t="n">
         <v>1288.861538461538</v>
@@ -4595,6 +5695,18 @@
       <c r="M92" t="n">
         <v>10.24516129032259</v>
       </c>
+      <c r="N92" t="n">
+        <v>1.090101108936725</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.988663868438482</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.906946943116878</v>
+      </c>
+      <c r="Q92" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4611,7 +5723,7 @@
         <v>5.289115646258503</v>
       </c>
       <c r="D93" t="n">
-        <v>334.4212328767123</v>
+        <v>2.274974373310968</v>
       </c>
       <c r="E93" t="n">
         <v>1299.972413793103</v>
@@ -4640,6 +5752,18 @@
       <c r="M93" t="n">
         <v>14.36290322580646</v>
       </c>
+      <c r="N93" t="n">
+        <v>1.137487186655484</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.9952802240237369</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.8749814817256328</v>
+      </c>
+      <c r="Q93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4656,7 +5780,7 @@
         <v>5.812925170068027</v>
       </c>
       <c r="D94" t="n">
-        <v>326.0068493150685</v>
+        <v>2.21773366880999</v>
       </c>
       <c r="E94" t="n">
         <v>1396.266666666667</v>
@@ -4685,6 +5809,18 @@
       <c r="M94" t="n">
         <v>8.612903225806463</v>
       </c>
+      <c r="N94" t="n">
+        <v>1.108866834404995</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.023590564842555</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.9230960229699733</v>
+      </c>
+      <c r="Q94" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4701,7 +5837,7 @@
         <v>5.751700680272108</v>
       </c>
       <c r="D95" t="n">
-        <v>326.9006849315068</v>
+        <v>2.22381418320753</v>
       </c>
       <c r="E95" t="n">
         <v>1322.778947368421</v>
@@ -4730,6 +5866,18 @@
       <c r="M95" t="n">
         <v>8.072580645161281</v>
       </c>
+      <c r="N95" t="n">
+        <v>1.111907091603765</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.031980550562564</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.9281176083462888</v>
+      </c>
+      <c r="Q95" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4746,7 +5894,7 @@
         <v>3.08843537414966</v>
       </c>
       <c r="D96" t="n">
-        <v>373.0719178082192</v>
+        <v>2.537904202777001</v>
       </c>
       <c r="E96" t="n">
         <v>1621.470967741936</v>
@@ -4775,6 +5923,18 @@
       <c r="M96" t="n">
         <v>8.774193548387075</v>
       </c>
+      <c r="N96" t="n">
+        <v>1.268952101388501</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.182078897939124</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.9315394148019304</v>
+      </c>
+      <c r="Q96" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4791,7 +5951,7 @@
         <v>5.384353741496598</v>
       </c>
       <c r="D97" t="n">
-        <v>332.3869863013699</v>
+        <v>2.261135961233809</v>
       </c>
       <c r="E97" t="n">
         <v>1570.8</v>
@@ -4820,6 +5980,18 @@
       <c r="M97" t="n">
         <v>8.809677419354841</v>
       </c>
+      <c r="N97" t="n">
+        <v>1.130567980616904</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.043343451712401</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.9228489304491814</v>
+      </c>
+      <c r="Q97" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4836,7 +6008,7 @@
         <v>4.316326530612245</v>
       </c>
       <c r="D98" t="n">
-        <v>353.5</v>
+        <v>2.404761904761905</v>
       </c>
       <c r="E98" t="n">
         <v>1449.969230769231</v>
@@ -4865,6 +6037,18 @@
       <c r="M98" t="n">
         <v>10.45967741935482</v>
       </c>
+      <c r="N98" t="n">
+        <v>1.202380952380952</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.098819789813083</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.9138699242009799</v>
+      </c>
+      <c r="Q98" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4881,7 +6065,7 @@
         <v>5.275510204081633</v>
       </c>
       <c r="D99" t="n">
-        <v>336.4246575342465</v>
+        <v>2.288603112477868</v>
       </c>
       <c r="E99" t="n">
         <v>992.0842105263157</v>
@@ -4910,6 +6094,18 @@
       <c r="M99" t="n">
         <v>11.32096774193548</v>
       </c>
+      <c r="N99" t="n">
+        <v>1.144301556238934</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.03221276671482</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.9020461093380623</v>
+      </c>
+      <c r="Q99" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4926,7 +6122,7 @@
         <v>6.795918367346938</v>
       </c>
       <c r="D100" t="n">
-        <v>305.3418217433889</v>
+        <v>2.077155249955026</v>
       </c>
       <c r="E100" t="n">
         <v>1256.64</v>
@@ -4955,6 +6151,18 @@
       <c r="M100" t="n">
         <v>10.33881064162753</v>
       </c>
+      <c r="N100" t="n">
+        <v>1.038577624977513</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.9362131631792208</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.9014378325351379</v>
+      </c>
+      <c r="Q100" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4971,7 +6179,7 @@
         <v>6.891156462585035</v>
       </c>
       <c r="D101" t="n">
-        <v>306.4877571008815</v>
+        <v>2.084950728577425</v>
       </c>
       <c r="E101" t="n">
         <v>1178.1</v>
@@ -5000,6 +6208,18 @@
       <c r="M101" t="n">
         <v>12.4600938967136</v>
       </c>
+      <c r="N101" t="n">
+        <v>1.042475364288713</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.9191080979846175</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.8816592981185034</v>
+      </c>
+      <c r="Q101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5016,7 +6236,7 @@
         <v>6.88095238095238</v>
       </c>
       <c r="D102" t="n">
-        <v>304.6542605288932</v>
+        <v>2.072477962781587</v>
       </c>
       <c r="E102" t="n">
         <v>2166.620689655173</v>
@@ -5045,6 +6265,18 @@
       <c r="M102" t="n">
         <v>8.426447574334901</v>
       </c>
+      <c r="N102" t="n">
+        <v>1.036238981390793</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.9528088073874774</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.9194875163918851</v>
+      </c>
+      <c r="Q102" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5061,7 +6293,7 @@
         <v>8.064625850340136</v>
       </c>
       <c r="D103" t="n">
-        <v>283.7695886385896</v>
+        <v>1.930405364888365</v>
       </c>
       <c r="E103" t="n">
         <v>2037.794594594594</v>
@@ -5090,6 +6322,18 @@
       <c r="M103" t="n">
         <v>9.007824726134572</v>
       </c>
+      <c r="N103" t="n">
+        <v>0.9652026824441823</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.8760162990171072</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.9075982847444762</v>
+      </c>
+      <c r="Q103" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5106,7 +6350,7 @@
         <v>6.738095238095238</v>
       </c>
       <c r="D104" t="n">
-        <v>306.172624877571</v>
+        <v>2.082806971956265</v>
       </c>
       <c r="E104" t="n">
         <v>2037.794594594594</v>
@@ -5135,6 +6379,18 @@
       <c r="M104" t="n">
         <v>7.629890453834122</v>
       </c>
+      <c r="N104" t="n">
+        <v>1.041403485978133</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.9658600161381908</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.9274599414568042</v>
+      </c>
+      <c r="Q104" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5151,7 +6407,7 @@
         <v>6.306122448979592</v>
       </c>
       <c r="D105" t="n">
-        <v>314.050930460333</v>
+        <v>2.136400887485259</v>
       </c>
       <c r="E105" t="n">
         <v>1733.296551724138</v>
@@ -5180,6 +6436,18 @@
       <c r="M105" t="n">
         <v>8.449139280125195</v>
       </c>
+      <c r="N105" t="n">
+        <v>1.068200443742629</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.9845455993849542</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.9216861920927728</v>
+      </c>
+      <c r="Q105" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5196,7 +6464,7 @@
         <v>9.605442176870747</v>
       </c>
       <c r="D106" t="n">
-        <v>258.6736043095005</v>
+        <v>1.759684383057826</v>
       </c>
       <c r="E106" t="n">
         <v>1570.8</v>
@@ -5225,6 +6493,18 @@
       <c r="M106" t="n">
         <v>8.206572769953056</v>
       </c>
+      <c r="N106" t="n">
+        <v>0.8798421915289132</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.7985889957868038</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.9076502621442663</v>
+      </c>
+      <c r="Q106" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5241,7 +6521,7 @@
         <v>9.064625850340136</v>
       </c>
       <c r="D107" t="n">
-        <v>267.6405484818805</v>
+        <v>1.820684003278099</v>
       </c>
       <c r="E107" t="n">
         <v>2356.2</v>
@@ -5270,6 +6550,18 @@
       <c r="M107" t="n">
         <v>7.374804381846644</v>
       </c>
+      <c r="N107" t="n">
+        <v>0.9103420016390493</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.8373241364722508</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.9197907324551305</v>
+      </c>
+      <c r="Q107" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5286,7 +6578,7 @@
         <v>7.404761904761904</v>
       </c>
       <c r="D108" t="n">
-        <v>295.945151811949</v>
+        <v>2.013232325251354</v>
       </c>
       <c r="E108" t="n">
         <v>1733.296551724138</v>
@@ -5315,6 +6607,18 @@
       <c r="M108" t="n">
         <v>17.66118935837247</v>
       </c>
+      <c r="N108" t="n">
+        <v>1.006616162625677</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.8317529016516921</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.8262860587119244</v>
+      </c>
+      <c r="Q108" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5331,7 +6635,7 @@
         <v>6.826530612244897</v>
       </c>
       <c r="D109" t="n">
-        <v>305.5423604309501</v>
+        <v>2.078519458713946</v>
       </c>
       <c r="E109" t="n">
         <v>1346.4</v>
@@ -5360,6 +6664,18 @@
       <c r="M109" t="n">
         <v>12.50860719874805</v>
       </c>
+      <c r="N109" t="n">
+        <v>1.039259729356973</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.9154121333297646</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.8808309486755179</v>
+      </c>
+      <c r="Q109" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5376,7 +6692,7 @@
         <v>3.755102040816327</v>
       </c>
       <c r="D110" t="n">
-        <v>363.9794520547945</v>
+        <v>2.476050694250303</v>
       </c>
       <c r="E110" t="n">
         <v>1523.2</v>
@@ -5405,6 +6721,18 @@
       <c r="M110" t="n">
         <v>10.22903225806454</v>
       </c>
+      <c r="N110" t="n">
+        <v>1.238025347125151</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1.136747800015602</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.9181942862924989</v>
+      </c>
+      <c r="Q110" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5421,7 +6749,7 @@
         <v>4.129251700680272</v>
       </c>
       <c r="D111" t="n">
-        <v>359.0787671232877</v>
+        <v>2.442712701518964</v>
       </c>
       <c r="E111" t="n">
         <v>1047.2</v>
@@ -5450,6 +6778,18 @@
       <c r="M111" t="n">
         <v>21.85967741935485</v>
       </c>
+      <c r="N111" t="n">
+        <v>1.221356350759482</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1.004923901062899</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.8227933644738512</v>
+      </c>
+      <c r="Q111" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5466,7 +6806,7 @@
         <v>1.908163265306122</v>
       </c>
       <c r="D112" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E112" t="n">
         <v>1436.16</v>
@@ -5495,6 +6835,18 @@
       <c r="M112" t="n">
         <v>12.5</v>
       </c>
+      <c r="N112" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.155149188388227</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.9032283547503687</v>
+      </c>
+      <c r="Q112" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5511,7 +6863,7 @@
         <v>4.510204081632653</v>
       </c>
       <c r="D113" t="n">
-        <v>350.3561643835617</v>
+        <v>2.383375267915385</v>
       </c>
       <c r="E113" t="n">
         <v>1461.209302325581</v>
@@ -5540,6 +6892,18 @@
       <c r="M113" t="n">
         <v>12.00967741935483</v>
       </c>
+      <c r="N113" t="n">
+        <v>1.191687633957693</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1.072779936736358</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.9002190726554469</v>
+      </c>
+      <c r="Q113" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5556,7 +6920,7 @@
         <v>2.619047619047619</v>
       </c>
       <c r="D114" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E114" t="n">
         <v>1436.16</v>
@@ -5585,6 +6949,18 @@
       <c r="M114" t="n">
         <v>8.5</v>
       </c>
+      <c r="N114" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.194753148784266</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.9341952812302506</v>
+      </c>
+      <c r="Q114" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5601,7 +6977,7 @@
         <v>4.316326530612245</v>
       </c>
       <c r="D115" t="n">
-        <v>353.8082191780822</v>
+        <v>2.406858633864505</v>
       </c>
       <c r="E115" t="n">
         <v>1478.4</v>
@@ -5630,6 +7006,18 @@
       <c r="M115" t="n">
         <v>10.49032258064517</v>
       </c>
+      <c r="N115" t="n">
+        <v>1.203429316932252</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.099564736925865</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.9136928288641361</v>
+      </c>
+      <c r="Q115" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5646,7 +7034,7 @@
         <v>0.5782312925170068</v>
       </c>
       <c r="D116" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E116" t="n">
         <v>1507.968</v>
@@ -5675,6 +7063,18 @@
       <c r="M116" t="n">
         <v>12.5</v>
       </c>
+      <c r="N116" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.155149188388227</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.9032283547503687</v>
+      </c>
+      <c r="Q116" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5691,7 +7091,7 @@
         <v>2.401360544217687</v>
       </c>
       <c r="D117" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E117" t="n">
         <v>1621.470967741936</v>
@@ -5720,6 +7120,18 @@
       <c r="M117" t="n">
         <v>13</v>
       </c>
+      <c r="N117" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.150198693338722</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.8993574889403834</v>
+      </c>
+      <c r="Q117" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5736,7 +7148,7 @@
         <v>4.58843537414966</v>
       </c>
       <c r="D118" t="n">
-        <v>348.9383561643835</v>
+        <v>2.373730314043426</v>
       </c>
       <c r="E118" t="n">
         <v>1570.8</v>
@@ -5765,6 +7177,18 @@
       <c r="M118" t="n">
         <v>9.427419354838719</v>
       </c>
+      <c r="N118" t="n">
+        <v>1.186865157021713</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.09352437133024</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.921355189223265</v>
+      </c>
+      <c r="Q118" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5781,7 +7205,7 @@
         <v>5.51360544217687</v>
       </c>
       <c r="D119" t="n">
-        <v>331.8938356164383</v>
+        <v>2.257781194669648</v>
       </c>
       <c r="E119" t="n">
         <v>1142.4</v>
@@ -5810,6 +7234,18 @@
       <c r="M119" t="n">
         <v>9.788709677419348</v>
       </c>
+      <c r="N119" t="n">
+        <v>1.128890597334824</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.031972679736613</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0.9141476438664448</v>
+      </c>
+      <c r="Q119" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5826,7 +7262,7 @@
         <v>4.047619047619047</v>
       </c>
       <c r="D120" t="n">
-        <v>356.0582191780822</v>
+        <v>2.422164756313484</v>
       </c>
       <c r="E120" t="n">
         <v>2513.28</v>
@@ -5855,6 +7291,18 @@
       <c r="M120" t="n">
         <v>19.29838709677421</v>
       </c>
+      <c r="N120" t="n">
+        <v>1.211082378156742</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.02000923858472</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0.8422294444884636</v>
+      </c>
+      <c r="Q120" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5871,7 +7319,7 @@
         <v>3.248299319727891</v>
       </c>
       <c r="D121" t="n">
-        <v>371.068493150685</v>
+        <v>2.524275463610102</v>
       </c>
       <c r="E121" t="n">
         <v>1933.292307692308</v>
@@ -5900,6 +7348,18 @@
       <c r="M121" t="n">
         <v>8.824193548387086</v>
       </c>
+      <c r="N121" t="n">
+        <v>1.262137731805051</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1.174769478850723</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.9307775603623089</v>
+      </c>
+      <c r="Q121" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5916,7 +7376,7 @@
         <v>4.870748299319728</v>
       </c>
       <c r="D122" t="n">
-        <v>344.4691780821918</v>
+        <v>2.343327742055726</v>
       </c>
       <c r="E122" t="n">
         <v>1256.64</v>
@@ -5945,6 +7405,18 @@
       <c r="M122" t="n">
         <v>11.43548387096774</v>
       </c>
+      <c r="N122" t="n">
+        <v>1.171663871027863</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.058441258444024</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0.9033659606790535</v>
+      </c>
+      <c r="Q122" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5961,7 +7433,7 @@
         <v>0.4115646258503401</v>
       </c>
       <c r="D123" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E123" t="n">
         <v>1861.688888888889</v>
@@ -5990,6 +7462,18 @@
       <c r="M123" t="n">
         <v>13.5</v>
       </c>
+      <c r="N123" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.145248198289217</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.8954866231303982</v>
+      </c>
+      <c r="Q123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6006,7 +7490,7 @@
         <v>4.683673469387755</v>
       </c>
       <c r="D124" t="n">
-        <v>346.6267123287672</v>
+        <v>2.358004845773926</v>
       </c>
       <c r="E124" t="n">
         <v>876.7255813953487</v>
@@ -6035,6 +7519,18 @@
       <c r="M124" t="n">
         <v>13.46774193548384</v>
       </c>
+      <c r="N124" t="n">
+        <v>1.179002422886963</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.045658443327717</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0.8869010131185877</v>
+      </c>
+      <c r="Q124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6051,7 +7547,7 @@
         <v>4.326530612244898</v>
       </c>
       <c r="D125" t="n">
-        <v>351.8356164383562</v>
+        <v>2.393439567607865</v>
       </c>
       <c r="E125" t="n">
         <v>1984.168421052631</v>
@@ -6080,6 +7576,18 @@
       <c r="M125" t="n">
         <v>9.143548387096757</v>
       </c>
+      <c r="N125" t="n">
+        <v>1.196719783803933</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1.10618960175347</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.9243513951422272</v>
+      </c>
+      <c r="Q125" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6096,7 +7604,7 @@
         <v>4.506802721088436</v>
       </c>
       <c r="D126" t="n">
-        <v>349.3698630136986</v>
+        <v>2.376665734787065</v>
       </c>
       <c r="E126" t="n">
         <v>1396.266666666667</v>
@@ -6125,6 +7633,18 @@
       <c r="M126" t="n">
         <v>11.54032258064518</v>
       </c>
+      <c r="N126" t="n">
+        <v>1.188332867393533</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1.074072247783184</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.9038479682372452</v>
+      </c>
+      <c r="Q126" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6141,7 +7661,7 @@
         <v>4.295918367346939</v>
       </c>
       <c r="D127" t="n">
-        <v>353.1917808219177</v>
+        <v>2.402665175659304</v>
       </c>
       <c r="E127" t="n">
         <v>1346.4</v>
@@ -6170,6 +7690,18 @@
       <c r="M127" t="n">
         <v>15.1241935483871</v>
       </c>
+      <c r="N127" t="n">
+        <v>1.201332587829652</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.051588097251562</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.8753513455848052</v>
+      </c>
+      <c r="Q127" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6186,7 +7718,7 @@
         <v>2.63265306122449</v>
       </c>
       <c r="D128" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E128" t="n">
         <v>1848</v>
@@ -6215,6 +7747,18 @@
       <c r="M128" t="n">
         <v>10.5</v>
       </c>
+      <c r="N128" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1.174951168586246</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.9187118179903097</v>
+      </c>
+      <c r="Q128" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6231,7 +7775,7 @@
         <v>1.880952380952381</v>
       </c>
       <c r="D129" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E129" t="n">
         <v>1256.64</v>
@@ -6260,6 +7804,18 @@
       <c r="M129" t="n">
         <v>23.5</v>
       </c>
+      <c r="N129" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1.046238297299118</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0.818069306930693</v>
+      </c>
+      <c r="Q129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6276,7 +7832,7 @@
         <v>4.48639455782313</v>
       </c>
       <c r="D130" t="n">
-        <v>352.1438356164383</v>
+        <v>2.395536296710465</v>
       </c>
       <c r="E130" t="n">
         <v>1358.52972972973</v>
@@ -6305,6 +7861,18 @@
       <c r="M130" t="n">
         <v>10.2951612903226</v>
       </c>
+      <c r="N130" t="n">
+        <v>1.197768148355232</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1.095835858352038</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0.9148981460701165</v>
+      </c>
+      <c r="Q130" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6321,7 +7889,7 @@
         <v>3.687074829931973</v>
       </c>
       <c r="D131" t="n">
-        <v>364.8116438356165</v>
+        <v>2.481711862827323</v>
       </c>
       <c r="E131" t="n">
         <v>1299.972413793103</v>
@@ -6350,6 +7918,18 @@
       <c r="M131" t="n">
         <v>26.10806451612905</v>
       </c>
+      <c r="N131" t="n">
+        <v>1.240855931413661</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.982360243135156</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0.7916795320597688</v>
+      </c>
+      <c r="Q131" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6366,7 +7946,7 @@
         <v>8.802721088435373</v>
       </c>
       <c r="D132" t="n">
-        <v>272.6826640548482</v>
+        <v>1.854984109216654</v>
       </c>
       <c r="E132" t="n">
         <v>1396.266666666667</v>
@@ -6395,6 +7975,18 @@
       <c r="M132" t="n">
         <v>8.082159624413151</v>
       </c>
+      <c r="N132" t="n">
+        <v>0.9274920546083272</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.8474706721883951</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0.9137228378158726</v>
+      </c>
+      <c r="Q132" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6411,7 +8003,7 @@
         <v>7.578231292517008</v>
       </c>
       <c r="D133" t="n">
-        <v>292.3927522037219</v>
+        <v>1.989066341521918</v>
       </c>
       <c r="E133" t="n">
         <v>2037.794594594594</v>
@@ -6440,6 +8032,18 @@
       <c r="M133" t="n">
         <v>8.627543035993739</v>
       </c>
+      <c r="N133" t="n">
+        <v>0.9945331707609588</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.909111952582803</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0.914109231658109</v>
+      </c>
+      <c r="Q133" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6456,7 +8060,7 @@
         <v>6.374149659863946</v>
       </c>
       <c r="D134" t="n">
-        <v>312.3606758080313</v>
+        <v>2.12490255651722</v>
       </c>
       <c r="E134" t="n">
         <v>1436.16</v>
@@ -6485,6 +8089,18 @@
       <c r="M134" t="n">
         <v>8.464006259780916</v>
       </c>
+      <c r="N134" t="n">
+        <v>1.06245127825861</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0.9786492360825613</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0.9211238727921691</v>
+      </c>
+      <c r="Q134" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6501,7 +8117,7 @@
         <v>8.319727891156461</v>
       </c>
       <c r="D135" t="n">
-        <v>279.6728697355534</v>
+        <v>1.902536528813288</v>
       </c>
       <c r="E135" t="n">
         <v>2284.8</v>
@@ -6530,6 +8146,18 @@
       <c r="M135" t="n">
         <v>17.3435054773083</v>
       </c>
+      <c r="N135" t="n">
+        <v>0.9512682644066441</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.7795503883936907</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0.8194853308597834</v>
+      </c>
+      <c r="Q135" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6546,7 +8174,7 @@
         <v>6.612244897959184</v>
       </c>
       <c r="D136" t="n">
-        <v>311.1001469147894</v>
+        <v>2.116327530032581</v>
       </c>
       <c r="E136" t="n">
         <v>1142.4</v>
@@ -6575,6 +8203,18 @@
       <c r="M136" t="n">
         <v>13.32394366197184</v>
       </c>
+      <c r="N136" t="n">
+        <v>1.058163765016291</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.9262435307393416</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0.8753309850154262</v>
+      </c>
+      <c r="Q136" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6591,7 +8231,7 @@
         <v>7.197278911564626</v>
       </c>
       <c r="D137" t="n">
-        <v>298.6667482859941</v>
+        <v>2.031746586979552</v>
       </c>
       <c r="E137" t="n">
         <v>1256.64</v>
@@ -6620,6 +8260,18 @@
       <c r="M137" t="n">
         <v>9.946791862284812</v>
       </c>
+      <c r="N137" t="n">
+        <v>1.015873293489776</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.9173902057443817</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0.9030557369934586</v>
+      </c>
+      <c r="Q137" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6636,7 +8288,7 @@
         <v>8.826530612244897</v>
       </c>
       <c r="D138" t="n">
-        <v>271.4794319294809</v>
+        <v>1.846798856663135</v>
       </c>
       <c r="E138" t="n">
         <v>2432.206451612903</v>
@@ -6665,6 +8317,18 @@
       <c r="M138" t="n">
         <v>7.087636932707369</v>
       </c>
+      <c r="N138" t="n">
+        <v>0.9233994283315676</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.8532248052354551</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.9240040431659065</v>
+      </c>
+      <c r="Q138" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6681,7 +8345,7 @@
         <v>8.428571428571427</v>
       </c>
       <c r="D139" t="n">
-        <v>276.8939764936337</v>
+        <v>1.883632493153971</v>
       </c>
       <c r="E139" t="n">
         <v>1256.64</v>
@@ -6710,6 +8374,18 @@
       <c r="M139" t="n">
         <v>8.334115805946794</v>
       </c>
+      <c r="N139" t="n">
+        <v>0.9418162465769854</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.8593002484983043</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0.9123863084985165</v>
+      </c>
+      <c r="Q139" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6726,7 +8402,7 @@
         <v>9.5578231292517</v>
       </c>
       <c r="D140" t="n">
-        <v>259.6476493633692</v>
+        <v>1.766310539886865</v>
       </c>
       <c r="E140" t="n">
         <v>2185.460869565217</v>
@@ -6755,6 +8431,18 @@
       <c r="M140" t="n">
         <v>9.3035993740219</v>
       </c>
+      <c r="N140" t="n">
+        <v>0.8831552699434327</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.7910404246560873</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0.8956980177525912</v>
+      </c>
+      <c r="Q140" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6771,7 +8459,7 @@
         <v>6.472789115646258</v>
       </c>
       <c r="D141" t="n">
-        <v>311.1574436826641</v>
+        <v>2.116717303963701</v>
       </c>
       <c r="E141" t="n">
         <v>1256.64</v>
@@ -6800,6 +8488,18 @@
       <c r="M141" t="n">
         <v>10.03677621283256</v>
       </c>
+      <c r="N141" t="n">
+        <v>1.05835865198185</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0.9589846300726171</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0.9061055326347561</v>
+      </c>
+      <c r="Q141" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6816,7 +8516,7 @@
         <v>8.272108843537413</v>
       </c>
       <c r="D142" t="n">
-        <v>280.1312438785504</v>
+        <v>1.905654720262248</v>
       </c>
       <c r="E142" t="n">
         <v>1733.296551724138</v>
@@ -6845,6 +8545,18 @@
       <c r="M142" t="n">
         <v>8.255868544600929</v>
       </c>
+      <c r="N142" t="n">
+        <v>0.9528273601311239</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0.8710860874123029</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0.914211874953326</v>
+      </c>
+      <c r="Q142" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6861,7 +8573,7 @@
         <v>8.340136054421768</v>
       </c>
       <c r="D143" t="n">
-        <v>279.3577375122429</v>
+        <v>1.900392772192129</v>
       </c>
       <c r="E143" t="n">
         <v>1675.52</v>
@@ -6890,6 +8602,18 @@
       <c r="M143" t="n">
         <v>7.528169014084511</v>
       </c>
+      <c r="N143" t="n">
+        <v>0.9501963860960644</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0.8756600592239405</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0.9215569244813059</v>
+      </c>
+      <c r="Q143" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6906,7 +8630,7 @@
         <v>8.85034013605442</v>
       </c>
       <c r="D144" t="n">
-        <v>271.5080803134182</v>
+        <v>1.846993743628695</v>
       </c>
       <c r="E144" t="n">
         <v>1713.6</v>
@@ -6935,6 +8659,18 @@
       <c r="M144" t="n">
         <v>7.942097026604074</v>
       </c>
+      <c r="N144" t="n">
+        <v>0.9234968718143476</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0.8448622477885647</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0.914851228601031</v>
+      </c>
+      <c r="Q144" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6951,7 +8687,7 @@
         <v>3.547619047619047</v>
       </c>
       <c r="D145" t="n">
-        <v>367.3698630136986</v>
+        <v>2.499114714378902</v>
       </c>
       <c r="E145" t="n">
         <v>1933.292307692308</v>
@@ -6980,6 +8716,18 @@
       <c r="M145" t="n">
         <v>18.53709677419357</v>
       </c>
+      <c r="N145" t="n">
+        <v>1.249557357189451</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.066021745563772</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.853119498220959</v>
+      </c>
+      <c r="Q145" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6996,7 +8744,7 @@
         <v>4.751700680272108</v>
       </c>
       <c r="D146" t="n">
-        <v>345.0547945205479</v>
+        <v>2.347311527350666</v>
       </c>
       <c r="E146" t="n">
         <v>1178.1</v>
@@ -7025,6 +8773,18 @@
       <c r="M146" t="n">
         <v>14.93709677419355</v>
       </c>
+      <c r="N146" t="n">
+        <v>1.173655763675333</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1.02576371640609</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0.8739902688279608</v>
+      </c>
+      <c r="Q146" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7041,7 +8801,7 @@
         <v>1.969387755102041</v>
       </c>
       <c r="D147" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E147" t="n">
         <v>1299.972413793103</v>
@@ -7070,6 +8830,18 @@
       <c r="M147" t="n">
         <v>26.5</v>
       </c>
+      <c r="N147" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1.016535327002088</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0.7948441120707815</v>
+      </c>
+      <c r="Q147" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7086,7 +8858,7 @@
         <v>2.792517006802721</v>
       </c>
       <c r="D148" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E148" t="n">
         <v>1861.688888888889</v>
@@ -7115,6 +8887,18 @@
       <c r="M148" t="n">
         <v>18.5</v>
       </c>
+      <c r="N148" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1.095743247794167</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0.8567779650305457</v>
+      </c>
+      <c r="Q148" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7131,7 +8915,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="D149" t="n">
-        <v>354.7945205479451</v>
+        <v>2.413568166992824</v>
       </c>
       <c r="E149" t="n">
         <v>1795.2</v>
@@ -7160,6 +8944,18 @@
       <c r="M149" t="n">
         <v>23.15483870967739</v>
       </c>
+      <c r="N149" t="n">
+        <v>1.206784083496412</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0.977528254687725</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0.8100274672628556</v>
+      </c>
+      <c r="Q149" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7176,7 +8972,7 @@
         <v>3.540816326530612</v>
       </c>
       <c r="D150" t="n">
-        <v>366.9691780821918</v>
+        <v>2.496388966545522</v>
       </c>
       <c r="E150" t="n">
         <v>2416.615384615385</v>
@@ -7205,6 +9001,18 @@
       <c r="M150" t="n">
         <v>7.312903225806451</v>
       </c>
+      <c r="N150" t="n">
+        <v>1.248194483272761</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1.175789500839034</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0.9419922268492313</v>
+      </c>
+      <c r="Q150" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7221,7 +9029,7 @@
         <v>6.551020408163265</v>
       </c>
       <c r="D151" t="n">
-        <v>310.8136630754162</v>
+        <v>2.114378660376981</v>
       </c>
       <c r="E151" t="n">
         <v>1570.8</v>
@@ -7250,6 +9058,18 @@
       <c r="M151" t="n">
         <v>8.930359937402187</v>
       </c>
+      <c r="N151" t="n">
+        <v>1.05718933018849</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0.9687699248676769</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0.9163636987283544</v>
+      </c>
+      <c r="Q151" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7266,7 +9086,7 @@
         <v>8.319727891156461</v>
       </c>
       <c r="D152" t="n">
-        <v>279.0139569049951</v>
+        <v>1.898054128605409</v>
       </c>
       <c r="E152" t="n">
         <v>2393.6</v>
@@ -7295,6 +9115,18 @@
       <c r="M152" t="n">
         <v>8.18309859154931</v>
       </c>
+      <c r="N152" t="n">
+        <v>0.9490270643027044</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0.8680062861685528</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0.9146275367882354</v>
+      </c>
+      <c r="Q152" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7311,7 +9143,7 @@
         <v>7.867346938775509</v>
       </c>
       <c r="D153" t="n">
-        <v>287.2073947110675</v>
+        <v>1.953791800755561</v>
       </c>
       <c r="E153" t="n">
         <v>1795.2</v>
@@ -7340,6 +9172,18 @@
       <c r="M153" t="n">
         <v>8.81768388106417</v>
       </c>
+      <c r="N153" t="n">
+        <v>0.9768959003777807</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0.8895920995751652</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0.910631418589377</v>
+      </c>
+      <c r="Q153" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7356,7 +9200,7 @@
         <v>8.340136054421768</v>
       </c>
       <c r="D154" t="n">
-        <v>278.8707149853085</v>
+        <v>1.897079693777609</v>
       </c>
       <c r="E154" t="n">
         <v>1933.292307692308</v>
@@ -7385,6 +9229,18 @@
       <c r="M154" t="n">
         <v>7.440532081377143</v>
       </c>
+      <c r="N154" t="n">
+        <v>0.9485398468888044</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0.8748712124197239</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0.9223346971550931</v>
+      </c>
+      <c r="Q154" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7401,7 +9257,7 @@
         <v>6.506802721088436</v>
       </c>
       <c r="D155" t="n">
-        <v>311.8450048971597</v>
+        <v>2.121394591137141</v>
       </c>
       <c r="E155" t="n">
         <v>1436.16</v>
@@ -7430,6 +9286,18 @@
       <c r="M155" t="n">
         <v>10.08528951486699</v>
       </c>
+      <c r="N155" t="n">
+        <v>1.060697295568571</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0.960842943936224</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0.905859709410477</v>
+      </c>
+      <c r="Q155" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7446,7 +9314,7 @@
         <v>10.03401360544218</v>
       </c>
       <c r="D156" t="n">
-        <v>253.4023016650343</v>
+        <v>1.723825181394791</v>
       </c>
       <c r="E156" t="n">
         <v>1507.968</v>
@@ -7475,6 +9343,18 @@
       <c r="M156" t="n">
         <v>7.023474178403745</v>
       </c>
+      <c r="N156" t="n">
+        <v>0.8619125906973956</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0.7923732423963683</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0.9193197209884576</v>
+      </c>
+      <c r="Q156" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7491,7 +9371,7 @@
         <v>4.972789115646258</v>
       </c>
       <c r="D157" t="n">
-        <v>339.722602739726</v>
+        <v>2.311038113875687</v>
       </c>
       <c r="E157" t="n">
         <v>1639.095652173913</v>
@@ -7520,6 +9400,18 @@
       <c r="M157" t="n">
         <v>9.699999999999989</v>
       </c>
+      <c r="N157" t="n">
+        <v>1.155519056937844</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1.059479452977448</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.9168861790865627</v>
+      </c>
+      <c r="Q157" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7536,7 +9428,7 @@
         <v>2.003401360544218</v>
       </c>
       <c r="D158" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E158" t="n">
         <v>1963.5</v>
@@ -7565,6 +9457,18 @@
       <c r="M158" t="n">
         <v>10.5</v>
       </c>
+      <c r="N158" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1.174951168586246</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0.9187118179903097</v>
+      </c>
+      <c r="Q158" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7581,7 +9485,7 @@
         <v>2.41156462585034</v>
       </c>
       <c r="D159" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E159" t="n">
         <v>1256.64</v>
@@ -7610,6 +9514,18 @@
       <c r="M159" t="n">
         <v>10</v>
       </c>
+      <c r="N159" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1.179901663635751</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0.9225826838002948</v>
+      </c>
+      <c r="Q159" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7626,7 +9542,7 @@
         <v>2.571428571428572</v>
       </c>
       <c r="D160" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E160" t="n">
         <v>1675.52</v>
@@ -7655,6 +9571,18 @@
       <c r="M160" t="n">
         <v>11</v>
       </c>
+      <c r="N160" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.170000673536741</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0.9148409521803245</v>
+      </c>
+      <c r="Q160" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7671,7 +9599,7 @@
         <v>4.173469387755102</v>
       </c>
       <c r="D161" t="n">
-        <v>354.8253424657535</v>
+        <v>2.413777839903085</v>
       </c>
       <c r="E161" t="n">
         <v>2792.533333333333</v>
@@ -7700,6 +9628,18 @@
       <c r="M161" t="n">
         <v>10.19516129032257</v>
       </c>
+      <c r="N161" t="n">
+        <v>1.206888919951542</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1.10594672895825</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0.9163616557211034</v>
+      </c>
+      <c r="Q161" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7716,7 +9656,7 @@
         <v>6.122448979591836</v>
       </c>
       <c r="D162" t="n">
-        <v>321.4452054794521</v>
+        <v>2.186702078091511</v>
       </c>
       <c r="E162" t="n">
         <v>2010.624</v>
@@ -7745,6 +9685,18 @@
       <c r="M162" t="n">
         <v>15.74516129032259</v>
       </c>
+      <c r="N162" t="n">
+        <v>1.093351039045755</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0.9374583530029577</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0.8574175351963297</v>
+      </c>
+      <c r="Q162" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7761,7 +9713,7 @@
         <v>4.836734693877551</v>
       </c>
       <c r="D163" t="n">
-        <v>342.2191780821918</v>
+        <v>2.328021619606747</v>
       </c>
       <c r="E163" t="n">
         <v>1396.266666666667</v>
@@ -7790,6 +9742,18 @@
       <c r="M163" t="n">
         <v>14.36451612903227</v>
       </c>
+      <c r="N163" t="n">
+        <v>1.164010809803373</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1.021787877832757</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0.8778164852312317</v>
+      </c>
+      <c r="Q163" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7806,7 +9770,7 @@
         <v>5.421768707482993</v>
       </c>
       <c r="D164" t="n">
-        <v>332.818493150685</v>
+        <v>2.264071381977449</v>
       </c>
       <c r="E164" t="n">
         <v>1675.52</v>
@@ -7835,6 +9799,18 @@
       <c r="M164" t="n">
         <v>8.033870967741933</v>
       </c>
+      <c r="N164" t="n">
+        <v>1.132035690988724</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.052492414080388</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0.9297343029539443</v>
+      </c>
+      <c r="Q164" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7851,7 +9827,7 @@
         <v>2.357142857142857</v>
       </c>
       <c r="D165" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E165" t="n">
         <v>1570.8</v>
@@ -7880,6 +9856,18 @@
       <c r="M165" t="n">
         <v>12</v>
       </c>
+      <c r="N165" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1.160099683437732</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0.907099220560354</v>
+      </c>
+      <c r="Q165" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7896,7 +9884,7 @@
         <v>2.520408163265306</v>
       </c>
       <c r="D166" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E166" t="n">
         <v>2094.4</v>
@@ -7925,6 +9913,18 @@
       <c r="M166" t="n">
         <v>11.5</v>
       </c>
+      <c r="N166" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1.165050178487236</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0.9109700863703392</v>
+      </c>
+      <c r="Q166" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7941,7 +9941,7 @@
         <v>4.078231292517007</v>
       </c>
       <c r="D167" t="n">
-        <v>357.2910958904109</v>
+        <v>2.430551672723884</v>
       </c>
       <c r="E167" t="n">
         <v>1507.968</v>
@@ -7970,6 +9970,18 @@
       <c r="M167" t="n">
         <v>11.20645161290321</v>
       </c>
+      <c r="N167" t="n">
+        <v>1.215275836361942</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1.104320869897554</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0.9086997674564617</v>
+      </c>
+      <c r="Q167" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7986,7 +9998,7 @@
         <v>5.22108843537415</v>
       </c>
       <c r="D168" t="n">
-        <v>337.75</v>
+        <v>2.297619047619047</v>
       </c>
       <c r="E168" t="n">
         <v>1346.4</v>
@@ -8015,6 +10027,18 @@
       <c r="M168" t="n">
         <v>12.50483870967741</v>
       </c>
+      <c r="N168" t="n">
+        <v>1.148809523809524</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1.024999239555292</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0.8922273173331039</v>
+      </c>
+      <c r="Q168" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8031,7 +10055,7 @@
         <v>3.595238095238095</v>
       </c>
       <c r="D169" t="n">
-        <v>365.3664383561644</v>
+        <v>2.485485975212003</v>
       </c>
       <c r="E169" t="n">
         <v>1795.2</v>
@@ -8060,6 +10084,18 @@
       <c r="M169" t="n">
         <v>8.24032258064517</v>
       </c>
+      <c r="N169" t="n">
+        <v>1.242742987606001</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1.161155635322386</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0.9343489739251847</v>
+      </c>
+      <c r="Q169" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8076,7 +10112,7 @@
         <v>4.387755102040816</v>
       </c>
       <c r="D170" t="n">
-        <v>351.5890410958904</v>
+        <v>2.391762184325785</v>
       </c>
       <c r="E170" t="n">
         <v>1570.8</v>
@@ -8105,6 +10141,18 @@
       <c r="M170" t="n">
         <v>9.245161290322585</v>
       </c>
+      <c r="N170" t="n">
+        <v>1.195881092162893</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1.104344841763659</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0.9234570635834041</v>
+      </c>
+      <c r="Q170" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8121,7 +10169,7 @@
         <v>3.581632653061225</v>
       </c>
       <c r="D171" t="n">
-        <v>365.8595890410959</v>
+        <v>2.488840741776162</v>
       </c>
       <c r="E171" t="n">
         <v>2185.460869565217</v>
@@ -8150,6 +10198,18 @@
       <c r="M171" t="n">
         <v>7.251612903225805</v>
       </c>
+      <c r="N171" t="n">
+        <v>1.244420370888081</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1.17262222333139</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0.9423039438791473</v>
+      </c>
+      <c r="Q171" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8166,7 +10226,7 @@
         <v>4.809523809523809</v>
       </c>
       <c r="D172" t="n">
-        <v>345.1472602739726</v>
+        <v>2.347940546081446</v>
       </c>
       <c r="E172" t="n">
         <v>1256.64</v>
@@ -8195,6 +10255,18 @@
       <c r="M172" t="n">
         <v>9.803225806451621</v>
       </c>
+      <c r="N172" t="n">
+        <v>1.173970273040723</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1.076908631392687</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0.9173218914678013</v>
+      </c>
+      <c r="Q172" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8211,7 +10283,7 @@
         <v>5.22108843537415</v>
       </c>
       <c r="D173" t="n">
-        <v>337.5650684931508</v>
+        <v>2.296361010157488</v>
       </c>
       <c r="E173" t="n">
         <v>1570.8</v>
@@ -8240,6 +10312,18 @@
       <c r="M173" t="n">
         <v>12.06612903225806</v>
       </c>
+      <c r="N173" t="n">
+        <v>1.148180505078744</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1.028713880996981</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0.8959513564693647</v>
+      </c>
+      <c r="Q173" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8256,7 +10340,7 @@
         <v>4.071428571428571</v>
       </c>
       <c r="D174" t="n">
-        <v>358.0924657534246</v>
+        <v>2.436003168390644</v>
       </c>
       <c r="E174" t="n">
         <v>2513.28</v>
@@ -8285,6 +10369,18 @@
       <c r="M174" t="n">
         <v>8.583870967741916</v>
       </c>
+      <c r="N174" t="n">
+        <v>1.218001584195322</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1.133012762732531</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0.9302227332331925</v>
+      </c>
+      <c r="Q174" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8301,7 +10397,7 @@
         <v>3.962585034013606</v>
       </c>
       <c r="D175" t="n">
-        <v>359.1712328767123</v>
+        <v>2.443341720249744</v>
       </c>
       <c r="E175" t="n">
         <v>1449.969230769231</v>
@@ -8330,6 +10426,18 @@
       <c r="M175" t="n">
         <v>9.574193548387086</v>
       </c>
+      <c r="N175" t="n">
+        <v>1.221670860124872</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1.126876864596287</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0.9224062727346254</v>
+      </c>
+      <c r="Q175" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8346,7 +10454,7 @@
         <v>4.098639455782313</v>
       </c>
       <c r="D176" t="n">
-        <v>357.3835616438356</v>
+        <v>2.431180691454664</v>
       </c>
       <c r="E176" t="n">
         <v>1396.266666666667</v>
@@ -8375,6 +10483,18 @@
       <c r="M176" t="n">
         <v>11.70645161290321</v>
       </c>
+      <c r="N176" t="n">
+        <v>1.215590345727332</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1.099684884213439</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0.9046508867717745</v>
+      </c>
+      <c r="Q176" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8391,7 +10511,7 @@
         <v>3.938775510204082</v>
       </c>
       <c r="D177" t="n">
-        <v>360.0342465753424</v>
+        <v>2.449212561737023</v>
       </c>
       <c r="E177" t="n">
         <v>2393.6</v>
@@ -8420,6 +10540,18 @@
       <c r="M177" t="n">
         <v>9.00322580645161</v>
       </c>
+      <c r="N177" t="n">
+        <v>1.224606280868512</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1.135465431299684</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0.9272085641226602</v>
+      </c>
+      <c r="Q177" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8436,7 +10568,7 @@
         <v>4.078231292517007</v>
       </c>
       <c r="D178" t="n">
-        <v>357.8150684931508</v>
+        <v>2.434116112198304</v>
       </c>
       <c r="E178" t="n">
         <v>2356.2</v>
@@ -8465,6 +10597,18 @@
       <c r="M178" t="n">
         <v>9.991935483870975</v>
       </c>
+      <c r="N178" t="n">
+        <v>1.217058056099152</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1.1181280018034</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0.9187137755672581</v>
+      </c>
+      <c r="Q178" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8481,7 +10625,7 @@
         <v>6.166666666666667</v>
       </c>
       <c r="D179" t="n">
-        <v>318.9178082191781</v>
+        <v>2.169508899450192</v>
       </c>
       <c r="E179" t="n">
         <v>2284.8</v>
@@ -8510,6 +10654,18 @@
       <c r="M179" t="n">
         <v>17.53064516129032</v>
       </c>
+      <c r="N179" t="n">
+        <v>1.084754449725096</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0.9111837055539043</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0.8399907516256987</v>
+      </c>
+      <c r="Q179" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8526,7 +10682,7 @@
         <v>6.782312925170069</v>
       </c>
       <c r="D180" t="n">
-        <v>305.8288442703232</v>
+        <v>2.080468328369546</v>
       </c>
       <c r="E180" t="n">
         <v>1358.52972972973</v>
@@ -8555,6 +10711,18 @@
       <c r="M180" t="n">
         <v>10.62989045383412</v>
       </c>
+      <c r="N180" t="n">
+        <v>1.040234164184773</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0.9349877240478012</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0.8988242803778198</v>
+      </c>
+      <c r="Q180" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8571,7 +10739,7 @@
         <v>8.860544217687075</v>
       </c>
       <c r="D181" t="n">
-        <v>270.2761998041136</v>
+        <v>1.838613604109616</v>
       </c>
       <c r="E181" t="n">
         <v>1570.8</v>
@@ -8600,6 +10768,18 @@
       <c r="M181" t="n">
         <v>9.820813771518004</v>
       </c>
+      <c r="N181" t="n">
+        <v>0.9193068020548082</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0.8220710221387884</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0.8942292391411863</v>
+      </c>
+      <c r="Q181" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8616,7 +10796,7 @@
         <v>9.459183673469386</v>
       </c>
       <c r="D182" t="n">
-        <v>261.5670910871694</v>
+        <v>1.779367966579384</v>
       </c>
       <c r="E182" t="n">
         <v>1884.96</v>
@@ -8645,6 +10825,18 @@
       <c r="M182" t="n">
         <v>8.079812206572768</v>
       </c>
+      <c r="N182" t="n">
+        <v>0.8896839832896918</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0.8096858426305554</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0.9100825212528436</v>
+      </c>
+      <c r="Q182" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8661,7 +10853,7 @@
         <v>8.42517006802721</v>
       </c>
       <c r="D183" t="n">
-        <v>276.836679725759</v>
+        <v>1.883242719222851</v>
       </c>
       <c r="E183" t="n">
         <v>2393.6</v>
@@ -8690,6 +10882,18 @@
       <c r="M183" t="n">
         <v>6.285602503912372</v>
       </c>
+      <c r="N183" t="n">
+        <v>0.9416213596114253</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0.879387671453877</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0.9339079476879858</v>
+      </c>
+      <c r="Q183" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8706,7 +10910,7 @@
         <v>8.605442176870747</v>
       </c>
       <c r="D184" t="n">
-        <v>274.831292850147</v>
+        <v>1.869600631633653</v>
       </c>
       <c r="E184" t="n">
         <v>2956.8</v>
@@ -8735,6 +10939,18 @@
       <c r="M184" t="n">
         <v>8.436619718309856</v>
       </c>
+      <c r="N184" t="n">
+        <v>0.9348003158168263</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0.8512694275167288</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0.9106430679507115</v>
+      </c>
+      <c r="Q184" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8751,7 +10967,7 @@
         <v>8.836734693877549</v>
       </c>
       <c r="D185" t="n">
-        <v>271.3361900097943</v>
+        <v>1.845824421835336</v>
       </c>
       <c r="E185" t="n">
         <v>2645.557894736842</v>
@@ -8780,6 +10996,18 @@
       <c r="M185" t="n">
         <v>7.514866979655721</v>
       </c>
+      <c r="N185" t="n">
+        <v>0.9229122109176678</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0.84850758735672</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0.9193806055648934</v>
+      </c>
+      <c r="Q185" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8796,7 +11024,7 @@
         <v>7.945578231292516</v>
       </c>
       <c r="D186" t="n">
-        <v>286.7490205680705</v>
+        <v>1.950673609306602</v>
       </c>
       <c r="E186" t="n">
         <v>1639.095652173913</v>
@@ -8825,6 +11053,18 @@
       <c r="M186" t="n">
         <v>18.42957746478874</v>
       </c>
+      <c r="N186" t="n">
+        <v>0.9753368046533012</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0.7928657406454919</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0.8129148175919892</v>
+      </c>
+      <c r="Q186" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8841,7 +11081,7 @@
         <v>9.15986394557823</v>
       </c>
       <c r="D187" t="n">
-        <v>265.9502938295788</v>
+        <v>1.80918567231006</v>
       </c>
       <c r="E187" t="n">
         <v>2513.28</v>
@@ -8870,6 +11110,18 @@
       <c r="M187" t="n">
         <v>6.438184663536788</v>
       </c>
+      <c r="N187" t="n">
+        <v>0.9045928361550299</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0.8408484335457548</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0.9295324923418357</v>
+      </c>
+      <c r="Q187" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8886,7 +11138,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="D188" t="n">
-        <v>314.0222820763956</v>
+        <v>2.136206000519698</v>
       </c>
       <c r="E188" t="n">
         <v>1733.296551724138</v>
@@ -8915,6 +11167,18 @@
       <c r="M188" t="n">
         <v>7.521909233176842</v>
       </c>
+      <c r="N188" t="n">
+        <v>1.068103000259849</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0.9936286514165141</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0.9302741881398922</v>
+      </c>
+      <c r="Q188" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8931,7 +11195,7 @@
         <v>7.340136054421769</v>
       </c>
       <c r="D189" t="n">
-        <v>296.3462291870715</v>
+        <v>2.015960742769193</v>
       </c>
       <c r="E189" t="n">
         <v>1795.2</v>
@@ -8960,6 +11224,18 @@
       <c r="M189" t="n">
         <v>6.670579029733972</v>
       </c>
+      <c r="N189" t="n">
+        <v>1.007980371384597</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0.9419350344565377</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0.9344775565050568</v>
+      </c>
+      <c r="Q189" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8976,7 +11252,7 @@
         <v>7.585034013605441</v>
       </c>
       <c r="D190" t="n">
-        <v>291.9630264446621</v>
+        <v>1.986143037038518</v>
       </c>
       <c r="E190" t="n">
         <v>1795.2</v>
@@ -9005,6 +11281,18 @@
       <c r="M190" t="n">
         <v>13.62754303599374</v>
       </c>
+      <c r="N190" t="n">
+        <v>0.9930715185192588</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0.8581453498460535</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0.8641324757008538</v>
+      </c>
+      <c r="Q190" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9021,7 +11309,7 @@
         <v>9.289115646258502</v>
       </c>
       <c r="D191" t="n">
-        <v>264.4032810969637</v>
+        <v>1.798661776169821</v>
       </c>
       <c r="E191" t="n">
         <v>2094.4</v>
@@ -9050,6 +11338,18 @@
       <c r="M191" t="n">
         <v>6.807511737089214</v>
       </c>
+      <c r="N191" t="n">
+        <v>0.8993308880849106</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0.8319297817770966</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0.9250541628217153</v>
+      </c>
+      <c r="Q191" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9066,7 +11366,7 @@
         <v>3.299319727891156</v>
       </c>
       <c r="D192" t="n">
-        <v>370.9452054794521</v>
+        <v>2.523436771969062</v>
       </c>
       <c r="E192" t="n">
         <v>1984.168421052631</v>
@@ -9095,6 +11395,18 @@
       <c r="M192" t="n">
         <v>8.079032258064501</v>
       </c>
+      <c r="N192" t="n">
+        <v>1.261718385984531</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1.181727967587853</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0.9366020030418587</v>
+      </c>
+      <c r="Q192" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9111,7 +11423,7 @@
         <v>4.843537414965986</v>
       </c>
       <c r="D193" t="n">
-        <v>342.5890410958904</v>
+        <v>2.330537694529867</v>
       </c>
       <c r="E193" t="n">
         <v>1795.2</v>
@@ -9140,6 +11452,18 @@
       <c r="M193" t="n">
         <v>10.77419354838707</v>
       </c>
+      <c r="N193" t="n">
+        <v>1.165268847264934</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1.058593663617537</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0.9084544447422755</v>
+      </c>
+      <c r="Q193" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9156,7 +11480,7 @@
         <v>2.602040816326531</v>
       </c>
       <c r="D194" t="n">
-        <v>376</v>
+        <v>2.557823129251701</v>
       </c>
       <c r="E194" t="n">
         <v>1861.688888888889</v>
@@ -9185,6 +11509,18 @@
       <c r="M194" t="n">
         <v>8.5</v>
       </c>
+      <c r="N194" t="n">
+        <v>1.27891156462585</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1.194753148784266</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0.9341952812302506</v>
+      </c>
+      <c r="Q194" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9201,7 +11537,7 @@
         <v>4.299319727891157</v>
       </c>
       <c r="D195" t="n">
-        <v>354.1472602739726</v>
+        <v>2.409165035877365</v>
       </c>
       <c r="E195" t="n">
         <v>1713.6</v>
@@ -9230,6 +11566,18 @@
       <c r="M195" t="n">
         <v>8.204838709677404</v>
       </c>
+      <c r="N195" t="n">
+        <v>1.204582517938682</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1.123346491110193</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0.9325608452565769</v>
+      </c>
+      <c r="Q195" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -9246,7 +11594,7 @@
         <v>5.282312925170068</v>
       </c>
       <c r="D196" t="n">
-        <v>335.2842465753424</v>
+        <v>2.280845214798248</v>
       </c>
       <c r="E196" t="n">
         <v>1795.2</v>
@@ -9275,6 +11623,18 @@
       <c r="M196" t="n">
         <v>10.92258064516128</v>
       </c>
+      <c r="N196" t="n">
+        <v>1.140422607399124</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1.032278244575745</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0.9051716774801443</v>
+      </c>
+      <c r="Q196" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9291,7 +11651,7 @@
         <v>3.146258503401361</v>
       </c>
       <c r="D197" t="n">
-        <v>372.7945205479451</v>
+        <v>2.536017146584661</v>
       </c>
       <c r="E197" t="n">
         <v>1449.969230769231</v>
@@ -9320,6 +11680,18 @@
       <c r="M197" t="n">
         <v>5.75322580645161</v>
       </c>
+      <c r="N197" t="n">
+        <v>1.26800857329233</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1.211045941545285</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0.955077092579</v>
+      </c>
+      <c r="Q197" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9336,7 +11708,7 @@
         <v>3.789115646258503</v>
       </c>
       <c r="D198" t="n">
-        <v>362.2534246575342</v>
+        <v>2.464309011275743</v>
       </c>
       <c r="E198" t="n">
         <v>1639.095652173913</v>
@@ -9365,6 +11737,18 @@
       <c r="M198" t="n">
         <v>10.16774193548389</v>
       </c>
+      <c r="N198" t="n">
+        <v>1.232154505637871</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1.131483793405358</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0.9182970059583576</v>
+      </c>
+      <c r="Q198" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9381,7 +11765,7 @@
         <v>5.244897959183674</v>
       </c>
       <c r="D199" t="n">
-        <v>335.7465753424658</v>
+        <v>2.283990308452148</v>
       </c>
       <c r="E199" t="n">
         <v>1396.266666666667</v>
@@ -9410,6 +11794,18 @@
       <c r="M199" t="n">
         <v>11.50483870967741</v>
       </c>
+      <c r="N199" t="n">
+        <v>1.141995154226074</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1.028085860070852</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0.9002541352879752</v>
+      </c>
+      <c r="Q199" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9426,7 +11822,7 @@
         <v>5.710884353741497</v>
       </c>
       <c r="D200" t="n">
-        <v>327.9178082191781</v>
+        <v>2.23073338924611</v>
       </c>
       <c r="E200" t="n">
         <v>1861.688888888889</v>
@@ -9455,6 +11851,18 @@
       <c r="M200" t="n">
         <v>8.879032258064512</v>
       </c>
+      <c r="N200" t="n">
+        <v>1.115366694623055</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1.027455484147169</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0.9211817863132479</v>
+      </c>
+      <c r="Q200" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9471,7 +11879,7 @@
         <v>9.146258503401359</v>
       </c>
       <c r="D201" t="n">
-        <v>266.8956904995103</v>
+        <v>1.81561694217354</v>
       </c>
       <c r="E201" t="n">
         <v>2645.557894736842</v>
@@ -9500,6 +11908,18 @@
       <c r="M201" t="n">
         <v>6.48669796557121</v>
       </c>
+      <c r="N201" t="n">
+        <v>0.9078084710867698</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0.8435837387543814</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0.9292529929187568</v>
+      </c>
+      <c r="Q201" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9516,7 +11936,7 @@
         <v>6.710884353741496</v>
       </c>
       <c r="D202" t="n">
-        <v>305.5137120470127</v>
+        <v>2.078324571748386</v>
       </c>
       <c r="E202" t="n">
         <v>1523.2</v>
@@ -9545,6 +11965,18 @@
       <c r="M202" t="n">
         <v>8.5813771517997</v>
       </c>
+      <c r="N202" t="n">
+        <v>1.039162285874193</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0.9541981556583544</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0.9182378620059688</v>
+      </c>
+      <c r="Q202" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9561,7 +11993,7 @@
         <v>9.095238095238095</v>
       </c>
       <c r="D203" t="n">
-        <v>267.497306562194</v>
+        <v>1.819709568450299</v>
       </c>
       <c r="E203" t="n">
         <v>2284.8</v>
@@ -9590,6 +12022,18 @@
       <c r="M203" t="n">
         <v>6.229264475743349</v>
       </c>
+      <c r="N203" t="n">
+        <v>0.9098547842251495</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0.8481788983267005</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0.9322134839891253</v>
+      </c>
+      <c r="Q203" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9606,7 +12050,7 @@
         <v>7.38095238095238</v>
       </c>
       <c r="D204" t="n">
-        <v>296.0024485798237</v>
+        <v>2.013622099182474</v>
       </c>
       <c r="E204" t="n">
         <v>1884.96</v>
@@ -9635,6 +12079,18 @@
       <c r="M204" t="n">
         <v>9.267605633802816</v>
       </c>
+      <c r="N204" t="n">
+        <v>1.006811049591237</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0.9150525779694271</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0.9088622719634794</v>
+      </c>
+      <c r="Q204" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9651,7 +12107,7 @@
         <v>8.387755102040815</v>
       </c>
       <c r="D205" t="n">
-        <v>278.6988246816846</v>
+        <v>1.895910371984249</v>
       </c>
       <c r="E205" t="n">
         <v>2010.624</v>
@@ -9680,6 +12136,18 @@
       <c r="M205" t="n">
         <v>6.819248826291073</v>
       </c>
+      <c r="N205" t="n">
+        <v>0.9479551859921246</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0.8804378708803318</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0.9287758365485077</v>
+      </c>
+      <c r="Q205" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9696,7 +12164,7 @@
         <v>9.15986394557823</v>
       </c>
       <c r="D206" t="n">
-        <v>265.5492164544564</v>
+        <v>1.806457254792221</v>
       </c>
       <c r="E206" t="n">
         <v>1639.095652173913</v>
@@ -9725,6 +12193,18 @@
       <c r="M206" t="n">
         <v>7.36541471048514</v>
       </c>
+      <c r="N206" t="n">
+        <v>0.9032286273961103</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0.8303037292724951</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0.9192619720946532</v>
+      </c>
+      <c r="Q206" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9741,7 +12221,7 @@
         <v>8.646258503401359</v>
       </c>
       <c r="D207" t="n">
-        <v>274.9172380019589</v>
+        <v>1.870185292530333</v>
       </c>
       <c r="E207" t="n">
         <v>1713.6</v>
@@ -9770,6 +12250,18 @@
       <c r="M207" t="n">
         <v>12.41236306729263</v>
       </c>
+      <c r="N207" t="n">
+        <v>0.9350926462651663</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0.8121979624305857</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0.8685748579828624</v>
+      </c>
+      <c r="Q207" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9786,7 +12278,7 @@
         <v>8.136054421768707</v>
       </c>
       <c r="D208" t="n">
-        <v>283.5117531831538</v>
+        <v>1.928651382198325</v>
       </c>
       <c r="E208" t="n">
         <v>1713.6</v>
@@ -9814,6 +12306,18 @@
       </c>
       <c r="M208" t="n">
         <v>19.17762128325509</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.9643256910991624</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0.7744482526510922</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0.8030982268743218</v>
+      </c>
+      <c r="Q208" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/plots-eff1-new-both/particle_both_motion_data.xlsx
+++ b/plots-eff1-new-both/particle_both_motion_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Detailed_Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Detailed_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary_Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/plots-eff1-new-both/particle_both_motion_data.xlsx
+++ b/plots-eff1-new-both/particle_both_motion_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Detailed_Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Summary_Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Detailed_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
